--- a/antivirus/antivirus2.xlsx
+++ b/antivirus/antivirus2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silverit\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silverit\Desktop\goremad-2022\antivirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="891">
   <si>
     <t>INSTALACIÓN DE ANTIVIRUS</t>
   </si>
@@ -2079,6 +2079,630 @@
   </si>
   <si>
     <t>04559-2022</t>
+  </si>
+  <si>
+    <t>172.18.1.115</t>
+  </si>
+  <si>
+    <t>Katia Lucero Huamani Berrocal</t>
+  </si>
+  <si>
+    <t>172.17.1.192</t>
+  </si>
+  <si>
+    <t>Belizabeth Montesinos Dueñas</t>
+  </si>
+  <si>
+    <t>AFEP-11</t>
+  </si>
+  <si>
+    <t>PATRIMONIO-02</t>
+  </si>
+  <si>
+    <t>AFEP-10</t>
+  </si>
+  <si>
+    <t>172.18.1.114</t>
+  </si>
+  <si>
+    <t>Ruth Ñaupa Atamari</t>
+  </si>
+  <si>
+    <t>172.18.1.130</t>
+  </si>
+  <si>
+    <t>Wilfredo F.Gracia Paria</t>
+  </si>
+  <si>
+    <t>AFEP-12</t>
+  </si>
+  <si>
+    <t>172.18.1.111</t>
+  </si>
+  <si>
+    <t>Elmer Rivera Turpo</t>
+  </si>
+  <si>
+    <t>AFEP-13</t>
+  </si>
+  <si>
+    <t>172.18.1.134</t>
+  </si>
+  <si>
+    <t>Adolfo Aestegui Mendes</t>
+  </si>
+  <si>
+    <t>AFEP-14</t>
+  </si>
+  <si>
+    <t>172.18.1.113</t>
+  </si>
+  <si>
+    <t>Diana Corvina Gutierres Mendes</t>
+  </si>
+  <si>
+    <t>AFEP-15</t>
+  </si>
+  <si>
+    <t>172.18.1.96</t>
+  </si>
+  <si>
+    <t>Bryan Arthur Chacacanta Arahujo</t>
+  </si>
+  <si>
+    <t>AFEP-16</t>
+  </si>
+  <si>
+    <t>172.18.1.102</t>
+  </si>
+  <si>
+    <t>Kanly Otsuka Pinche</t>
+  </si>
+  <si>
+    <t>AFEP-17</t>
+  </si>
+  <si>
+    <t>172.18.1.110</t>
+  </si>
+  <si>
+    <t>Javier Edul Tarifa Yucra</t>
+  </si>
+  <si>
+    <t>AFEP-18</t>
+  </si>
+  <si>
+    <t>172.17.1.20</t>
+  </si>
+  <si>
+    <t>Joni Torres Palomino</t>
+  </si>
+  <si>
+    <t>PATRIMONIO-03</t>
+  </si>
+  <si>
+    <t>172.17.1.39</t>
+  </si>
+  <si>
+    <t>Carmen Delgado Alvarado</t>
+  </si>
+  <si>
+    <t>GRI-02</t>
+  </si>
+  <si>
+    <t>172.17.1.133</t>
+  </si>
+  <si>
+    <t>Jackeline Amparo Menacho</t>
+  </si>
+  <si>
+    <t>PATRIMONIO-04</t>
+  </si>
+  <si>
+    <t>Elias Aguirre Huachaca</t>
+  </si>
+  <si>
+    <t>PATRIMONIO-05</t>
+  </si>
+  <si>
+    <t>172.18.1.6</t>
+  </si>
+  <si>
+    <t>OCI-06</t>
+  </si>
+  <si>
+    <t>172.17.1.135</t>
+  </si>
+  <si>
+    <t>Henry Bustinza Acuña</t>
+  </si>
+  <si>
+    <t>PATRIMONIO-06</t>
+  </si>
+  <si>
+    <t>172.17.1.218</t>
+  </si>
+  <si>
+    <t>Jose Guincho</t>
+  </si>
+  <si>
+    <t>PATRIMONIO-07</t>
+  </si>
+  <si>
+    <t>PATRIMONIO-08</t>
+  </si>
+  <si>
+    <t>172.17.1.132</t>
+  </si>
+  <si>
+    <t>172.17.1.35</t>
+  </si>
+  <si>
+    <t>Mishelli Chavez Masias</t>
+  </si>
+  <si>
+    <t>GRI-01</t>
+  </si>
+  <si>
+    <t>18349-2022</t>
+  </si>
+  <si>
+    <t>172.17.1.36</t>
+  </si>
+  <si>
+    <t>Marcos J. Arbieto Flores</t>
+  </si>
+  <si>
+    <t>GRI-03</t>
+  </si>
+  <si>
+    <t>18216-2022</t>
+  </si>
+  <si>
+    <t>Silvia E. Vega</t>
+  </si>
+  <si>
+    <t>GRI-05</t>
+  </si>
+  <si>
+    <t>GRI-06</t>
+  </si>
+  <si>
+    <t>GRI-07</t>
+  </si>
+  <si>
+    <t>GRI-08</t>
+  </si>
+  <si>
+    <t>4152-2022</t>
+  </si>
+  <si>
+    <t>172.17.1.37</t>
+  </si>
+  <si>
+    <t>Miguel A. Gomez Diaz</t>
+  </si>
+  <si>
+    <t>01397-2022</t>
+  </si>
+  <si>
+    <t>172.17.1.34</t>
+  </si>
+  <si>
+    <t>172.17.1.40</t>
+  </si>
+  <si>
+    <t>Roberto Rubin de Celis</t>
+  </si>
+  <si>
+    <t>172.17.1.33</t>
+  </si>
+  <si>
+    <t>Ernesto Victorio Valina</t>
+  </si>
+  <si>
+    <t>Sub Gerencia de Desarrollo
+Institucional e Informatica</t>
+  </si>
+  <si>
+    <t>14948-2022</t>
+  </si>
+  <si>
+    <t>03916-2022</t>
+  </si>
+  <si>
+    <t>172.17.1.16</t>
+  </si>
+  <si>
+    <t>Javier Garcia Blanco</t>
+  </si>
+  <si>
+    <t>SGDIEI-01</t>
+  </si>
+  <si>
+    <t>SGDIEI-02</t>
+  </si>
+  <si>
+    <t>SGDIEI-03</t>
+  </si>
+  <si>
+    <t>03925-2022</t>
+  </si>
+  <si>
+    <t>03932-2022</t>
+  </si>
+  <si>
+    <t>172.17.1.4</t>
+  </si>
+  <si>
+    <t>172.17.1.49</t>
+  </si>
+  <si>
+    <t>Alberto Cruz Valdez</t>
+  </si>
+  <si>
+    <t>Sub Gerencia de Estudio de
+Infraestructura</t>
+  </si>
+  <si>
+    <t>14886-2022</t>
+  </si>
+  <si>
+    <t>172.17.1.55</t>
+  </si>
+  <si>
+    <t>Maricruz Rios Lucana</t>
+  </si>
+  <si>
+    <t>SGEI-01</t>
+  </si>
+  <si>
+    <t>SGEI-02</t>
+  </si>
+  <si>
+    <t>SGEI-03</t>
+  </si>
+  <si>
+    <t>SGEI-04</t>
+  </si>
+  <si>
+    <t>SGEI-05</t>
+  </si>
+  <si>
+    <t>SGEI-06</t>
+  </si>
+  <si>
+    <t>SGEI-07</t>
+  </si>
+  <si>
+    <t>SGEI-08</t>
+  </si>
+  <si>
+    <t>SGEI-09</t>
+  </si>
+  <si>
+    <t>SGEI-10</t>
+  </si>
+  <si>
+    <t>14882-2022</t>
+  </si>
+  <si>
+    <t>14336-2022</t>
+  </si>
+  <si>
+    <t>172.17.1.59</t>
+  </si>
+  <si>
+    <t>Wilson Tarifa Yucra</t>
+  </si>
+  <si>
+    <t>Quispe Caceres</t>
+  </si>
+  <si>
+    <t>Jose Wiliam Villena García</t>
+  </si>
+  <si>
+    <t>Nely Fora Cho</t>
+  </si>
+  <si>
+    <t>Andres Anchopin Nina</t>
+  </si>
+  <si>
+    <t>Waldir Lizereza Cusiyupengi</t>
+  </si>
+  <si>
+    <t>Juan Carlos Chavez</t>
+  </si>
+  <si>
+    <t>Isaac Gongora Pillco</t>
+  </si>
+  <si>
+    <t>Rolando Comarca Figueroa</t>
+  </si>
+  <si>
+    <t>172.17.1.64</t>
+  </si>
+  <si>
+    <t>172.17.1.70</t>
+  </si>
+  <si>
+    <t>172.17.1.50</t>
+  </si>
+  <si>
+    <t>172.17.1.60</t>
+  </si>
+  <si>
+    <t>172.17.1.51</t>
+  </si>
+  <si>
+    <t>172.17.1.52</t>
+  </si>
+  <si>
+    <t>172.17.1.54</t>
+  </si>
+  <si>
+    <t>172.17.1.62</t>
+  </si>
+  <si>
+    <t>14887-2022</t>
+  </si>
+  <si>
+    <t>14885-2022</t>
+  </si>
+  <si>
+    <t>14888-2022</t>
+  </si>
+  <si>
+    <t>14405-2022</t>
+  </si>
+  <si>
+    <t>04181-2022</t>
+  </si>
+  <si>
+    <t>04243-2022</t>
+  </si>
+  <si>
+    <t>14337-2022</t>
+  </si>
+  <si>
+    <t>14889-2022</t>
+  </si>
+  <si>
+    <t>04135-2022</t>
+  </si>
+  <si>
+    <t>14915-2022</t>
+  </si>
+  <si>
+    <t>14404-2022</t>
+  </si>
+  <si>
+    <t>Archivo Tesoreria</t>
+  </si>
+  <si>
+    <t>Archivo Abastecimiento</t>
+  </si>
+  <si>
+    <t>13964-2022</t>
+  </si>
+  <si>
+    <t>00048-2022</t>
+  </si>
+  <si>
+    <t>172.17.1.53</t>
+  </si>
+  <si>
+    <t>Sub Gerencia de Obras</t>
+  </si>
+  <si>
+    <t>19682-2022</t>
+  </si>
+  <si>
+    <t>172.17.1.28</t>
+  </si>
+  <si>
+    <t>Alfredo Tito Rivas</t>
+  </si>
+  <si>
+    <t>Maria Amachi Ramos</t>
+  </si>
+  <si>
+    <t>SGEI-11</t>
+  </si>
+  <si>
+    <t>SGEI-12</t>
+  </si>
+  <si>
+    <t>SGEI-13</t>
+  </si>
+  <si>
+    <t>SGEI-14</t>
+  </si>
+  <si>
+    <t>172.17.1.66</t>
+  </si>
+  <si>
+    <t>172.17.1.57</t>
+  </si>
+  <si>
+    <t>172.17.1.19</t>
+  </si>
+  <si>
+    <t>172.17.1.204</t>
+  </si>
+  <si>
+    <t>172.17.1.209</t>
+  </si>
+  <si>
+    <t>172.17.1.245</t>
+  </si>
+  <si>
+    <t>172.17.1.32</t>
+  </si>
+  <si>
+    <t>07151-2022</t>
+  </si>
+  <si>
+    <t>14722-2022</t>
+  </si>
+  <si>
+    <t>17561-2022</t>
+  </si>
+  <si>
+    <t>18195-2022</t>
+  </si>
+  <si>
+    <t>02040-2022</t>
+  </si>
+  <si>
+    <t>17748-2022</t>
+  </si>
+  <si>
+    <t>01950-2022</t>
+  </si>
+  <si>
+    <t>07953-2022</t>
+  </si>
+  <si>
+    <t>00418-2022</t>
+  </si>
+  <si>
+    <t>17438-2022</t>
+  </si>
+  <si>
+    <t>13514-2022</t>
+  </si>
+  <si>
+    <t>13515-2022</t>
+  </si>
+  <si>
+    <t>14229-2022</t>
+  </si>
+  <si>
+    <t>01929-2022</t>
+  </si>
+  <si>
+    <t>Miguel Santa Valdes</t>
+  </si>
+  <si>
+    <t>Clara Casanova Victoriano</t>
+  </si>
+  <si>
+    <t>Silvia Rocio Ccapo Cruz</t>
+  </si>
+  <si>
+    <t>Santos Imayo Cortes</t>
+  </si>
+  <si>
+    <t>Lilian Choquemamani Vera</t>
+  </si>
+  <si>
+    <t>Clara Antonieta Torres</t>
+  </si>
+  <si>
+    <t>Eduardo Ojeda Rosas</t>
+  </si>
+  <si>
+    <t>AT-01</t>
+  </si>
+  <si>
+    <t>SGO-03</t>
+  </si>
+  <si>
+    <t>SGO-04</t>
+  </si>
+  <si>
+    <t>SGO-05</t>
+  </si>
+  <si>
+    <t>SGO-06</t>
+  </si>
+  <si>
+    <t>SGO-07</t>
+  </si>
+  <si>
+    <t>ARCHIVO
+ABASTECIMIENTO-01</t>
+  </si>
+  <si>
+    <t>SGO-01</t>
+  </si>
+  <si>
+    <t>SGO-02</t>
+  </si>
+  <si>
+    <t>SGO-08</t>
+  </si>
+  <si>
+    <t>SGO-09</t>
+  </si>
+  <si>
+    <t>SGO-10</t>
+  </si>
+  <si>
+    <t>SGO-11</t>
+  </si>
+  <si>
+    <t>SGO-12</t>
+  </si>
+  <si>
+    <t>SGO-13</t>
+  </si>
+  <si>
+    <t>SGO-14</t>
+  </si>
+  <si>
+    <t>SGO-15</t>
+  </si>
+  <si>
+    <t>172.17.1.116</t>
+  </si>
+  <si>
+    <t>172.17.1.173</t>
+  </si>
+  <si>
+    <t>172.17.1.42</t>
+  </si>
+  <si>
+    <t>172.17.1.169</t>
+  </si>
+  <si>
+    <t>172.17.1.162</t>
+  </si>
+  <si>
+    <t>172.17.1.170</t>
+  </si>
+  <si>
+    <t>172.17.1.171</t>
+  </si>
+  <si>
+    <t>172.17.1.163</t>
+  </si>
+  <si>
+    <t>172.17.1.165</t>
+  </si>
+  <si>
+    <t>172.17.1.175</t>
+  </si>
+  <si>
+    <t>172.17.1.220</t>
+  </si>
+  <si>
+    <t>Sonia Maceda Guerra</t>
+  </si>
+  <si>
+    <t>Gisela Yuana Grifa</t>
+  </si>
+  <si>
+    <t>Angie Camera Herrera</t>
+  </si>
+  <si>
+    <t>Lidiany Lopez Gongora</t>
+  </si>
+  <si>
+    <t>Alessandra Georgina León</t>
+  </si>
+  <si>
+    <t>Rossmery Vanessa</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2743,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2375,11 +2999,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2452,6 +3087,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2737,10 +3378,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6367,27 +7008,27 @@
       </c>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <v>150</v>
       </c>
-      <c r="B152" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="D152" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="F152" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="G152" s="16" t="s">
-        <v>639</v>
+      <c r="B152" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="D152" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>725</v>
+      </c>
+      <c r="F152" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="G152" s="24" t="s">
+        <v>726</v>
       </c>
       <c r="H152" s="7"/>
     </row>
@@ -6399,19 +7040,19 @@
         <v>616</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -6447,19 +7088,19 @@
         <v>616</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -6471,19 +7112,19 @@
         <v>616</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -6494,20 +7135,20 @@
       <c r="B157" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="C157" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="D157" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="F157" s="19" t="s">
-        <v>661</v>
+      <c r="C157" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>660</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H157" s="11"/>
     </row>
@@ -6518,44 +7159,44 @@
       <c r="B158" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="C158" s="21" t="s">
-        <v>635</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F158" s="21" t="s">
-        <v>662</v>
+      <c r="C158" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="D158" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="F158" s="19" t="s">
+        <v>661</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H158" s="15"/>
     </row>
-    <row r="159" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>157</v>
       </c>
       <c r="B159" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="C159" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="D159" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E159" s="22" t="s">
-        <v>654</v>
-      </c>
-      <c r="F159" s="22" t="s">
-        <v>663</v>
+      <c r="C159" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F159" s="21" t="s">
+        <v>662</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H159" s="14"/>
     </row>
@@ -6566,20 +7207,20 @@
       <c r="B160" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="C160" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="D160" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="F160" s="16" t="s">
-        <v>664</v>
+      <c r="C160" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="D160" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="F160" s="22" t="s">
+        <v>663</v>
       </c>
       <c r="G160" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -6588,22 +7229,22 @@
         <v>159</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H161" s="7"/>
     </row>
@@ -6612,15 +7253,23 @@
         <v>160</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>675</v>
-      </c>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
+        <v>676</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="G162" s="16" t="s">
+        <v>690</v>
+      </c>
       <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6631,12 +7280,20 @@
         <v>616</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
+        <v>677</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="F163" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="G163" s="16" t="s">
+        <v>688</v>
+      </c>
       <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6647,12 +7304,20 @@
         <v>616</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>677</v>
-      </c>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16"/>
+        <v>678</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="G164" s="16" t="s">
+        <v>695</v>
+      </c>
       <c r="H164" s="7"/>
     </row>
     <row r="165" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6663,12 +7328,20 @@
         <v>616</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>678</v>
-      </c>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="16"/>
+        <v>679</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="F165" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="G165" s="16" t="s">
+        <v>698</v>
+      </c>
       <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6679,12 +7352,20 @@
         <v>616</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>679</v>
-      </c>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="16"/>
+        <v>680</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="G166" s="16" t="s">
+        <v>701</v>
+      </c>
       <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6695,28 +7376,44 @@
         <v>616</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>680</v>
-      </c>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="16"/>
+        <v>681</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="F167" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>704</v>
+      </c>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9">
         <v>166</v>
       </c>
       <c r="B168" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="C168" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="16"/>
+      <c r="C168" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="D168" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="24" t="s">
+        <v>705</v>
+      </c>
+      <c r="F168" s="24" t="s">
+        <v>706</v>
+      </c>
+      <c r="G168" s="24" t="s">
+        <v>707</v>
+      </c>
       <c r="H168" s="7"/>
     </row>
     <row r="169" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6727,12 +7424,20 @@
         <v>616</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>682</v>
-      </c>
-      <c r="D169" s="24"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
+        <v>683</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="F169" s="24" t="s">
+        <v>709</v>
+      </c>
+      <c r="G169" s="24" t="s">
+        <v>710</v>
+      </c>
       <c r="H169" s="8"/>
     </row>
     <row r="170" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6742,13 +7447,21 @@
       <c r="B170" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="C170" s="24" t="s">
-        <v>683</v>
-      </c>
-      <c r="D170" s="24"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="24"/>
+      <c r="C170" s="24">
+        <v>12736</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="F170" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="G170" s="24" t="s">
+        <v>713</v>
+      </c>
       <c r="H170" s="8"/>
     </row>
     <row r="171" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6756,45 +7469,71 @@
         <v>169</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="C171" s="24"/>
-      <c r="D171" s="24"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
+        <v>617</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="F171" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>648</v>
+      </c>
       <c r="H171" s="8"/>
     </row>
     <row r="172" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
         <v>170</v>
       </c>
-      <c r="B172" s="24" t="s">
+      <c r="B172" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="C172" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="D172" s="24"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24"/>
+      <c r="C172" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="F172" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="G172" s="16" t="s">
+        <v>689</v>
+      </c>
       <c r="H172" s="8"/>
     </row>
     <row r="173" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>171</v>
       </c>
-      <c r="B173" s="26" t="s">
-        <v>666</v>
+      <c r="B173" s="24" t="s">
+        <v>617</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="D173" s="24"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24"/>
+        <v>674</v>
+      </c>
+      <c r="D173" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="F173" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="G173" s="24" t="s">
+        <v>716</v>
+      </c>
       <c r="H173" s="8"/>
     </row>
     <row r="174" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6807,10 +7546,18 @@
       <c r="C174" s="24" t="s">
         <v>672</v>
       </c>
-      <c r="D174" s="24"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24"/>
+      <c r="D174" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="F174" s="24" t="s">
+        <v>721</v>
+      </c>
+      <c r="G174" s="24" t="s">
+        <v>722</v>
+      </c>
       <c r="H174" s="8"/>
     </row>
     <row r="175" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6823,10 +7570,18 @@
       <c r="C175" s="24" t="s">
         <v>671</v>
       </c>
-      <c r="D175" s="24"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24"/>
+      <c r="D175" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="F175" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="G175" s="24" t="s">
+        <v>724</v>
+      </c>
       <c r="H175" s="8"/>
     </row>
     <row r="176" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6834,15 +7589,23 @@
         <v>174</v>
       </c>
       <c r="B176" s="24" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>670</v>
-      </c>
-      <c r="D176" s="24"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="24"/>
+        <v>669</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="F176" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="G176" s="24" t="s">
+        <v>729</v>
+      </c>
       <c r="H176" s="8"/>
     </row>
     <row r="177" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6853,12 +7616,20 @@
         <v>617</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>669</v>
-      </c>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="24"/>
+        <v>150</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="G177" s="24" t="s">
+        <v>732</v>
+      </c>
       <c r="H177" s="8"/>
     </row>
     <row r="178" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6869,28 +7640,44 @@
         <v>617</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
+        <v>668</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="F178" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="G178" s="24" t="s">
+        <v>733</v>
+      </c>
       <c r="H178" s="8"/>
     </row>
     <row r="179" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9">
         <v>177</v>
       </c>
-      <c r="B179" s="24" t="s">
-        <v>617</v>
+      <c r="B179" s="26" t="s">
+        <v>666</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>668</v>
-      </c>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24"/>
+        <v>667</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>735</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="G179" s="24" t="s">
+        <v>737</v>
+      </c>
       <c r="H179" s="8"/>
     </row>
     <row r="180" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6901,493 +7688,969 @@
         <v>666</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>667</v>
-      </c>
-      <c r="D180" s="24"/>
-      <c r="E180" s="24"/>
-      <c r="F180" s="24"/>
-      <c r="G180" s="24"/>
+        <v>673</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="G180" s="24" t="s">
+        <v>719</v>
+      </c>
       <c r="H180" s="8"/>
     </row>
     <row r="181" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9">
         <v>179</v>
       </c>
-      <c r="B181" s="24"/>
-      <c r="C181" s="24"/>
-      <c r="D181" s="24"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="24"/>
+      <c r="B181" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>741</v>
+      </c>
       <c r="H181" s="8"/>
     </row>
     <row r="182" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>180</v>
       </c>
-      <c r="B182" s="24"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="24"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="24"/>
-      <c r="G182" s="24"/>
+      <c r="B182" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="D182" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="24" t="s">
+        <v>749</v>
+      </c>
+      <c r="F182" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="G182" s="24" t="s">
+        <v>744</v>
+      </c>
       <c r="H182" s="8"/>
     </row>
     <row r="183" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9">
-        <v>17</v>
-      </c>
-      <c r="B183" s="24"/>
-      <c r="C183" s="24"/>
-      <c r="D183" s="24"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="24"/>
-      <c r="G183" s="24"/>
+        <v>181</v>
+      </c>
+      <c r="B183" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="F183" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="G183" s="24" t="s">
+        <v>745</v>
+      </c>
       <c r="H183" s="8"/>
     </row>
     <row r="184" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="9">
-        <v>17</v>
-      </c>
-      <c r="B184" s="24"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="24"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="24"/>
-      <c r="G184" s="24"/>
+      <c r="A184" s="31">
+        <v>182</v>
+      </c>
+      <c r="B184" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="D184" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F184" s="24" t="s">
+        <v>754</v>
+      </c>
+      <c r="G184" s="24" t="s">
+        <v>746</v>
+      </c>
       <c r="H184" s="8"/>
     </row>
     <row r="185" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9">
-        <v>14</v>
-      </c>
-      <c r="B185" s="24"/>
-      <c r="C185" s="24"/>
-      <c r="D185" s="24"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="24"/>
-      <c r="G185" s="24"/>
+        <v>183</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>758</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>755</v>
+      </c>
+      <c r="F185" s="24" t="s">
+        <v>756</v>
+      </c>
+      <c r="G185" s="24" t="s">
+        <v>747</v>
+      </c>
       <c r="H185" s="8"/>
     </row>
     <row r="186" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9">
-        <v>14</v>
-      </c>
-      <c r="B186" s="24"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="24"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="24"/>
-      <c r="G186" s="24"/>
+        <v>184</v>
+      </c>
+      <c r="B186" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="F186" s="24" t="s">
+        <v>761</v>
+      </c>
+      <c r="G186" s="24" t="s">
+        <v>762</v>
+      </c>
       <c r="H186" s="8"/>
     </row>
     <row r="187" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9">
-        <v>14</v>
-      </c>
-      <c r="B187" s="24"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="24"/>
-      <c r="E187" s="24"/>
-      <c r="F187" s="24"/>
-      <c r="G187" s="24"/>
+        <v>185</v>
+      </c>
+      <c r="B187" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="D187" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F187" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="G187" s="24" t="s">
+        <v>763</v>
+      </c>
       <c r="H187" s="8"/>
     </row>
     <row r="188" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9">
-        <v>14</v>
-      </c>
-      <c r="B188" s="24"/>
-      <c r="C188" s="24"/>
-      <c r="D188" s="24"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="24"/>
-      <c r="G188" s="24"/>
+        <v>186</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="C188" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="D188" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="F188" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="G188" s="24" t="s">
+        <v>764</v>
+      </c>
       <c r="H188" s="8"/>
     </row>
     <row r="189" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="9">
-        <v>14</v>
-      </c>
-      <c r="B189" s="24"/>
-      <c r="C189" s="24"/>
-      <c r="D189" s="24"/>
-      <c r="E189" s="24"/>
-      <c r="F189" s="24"/>
-      <c r="G189" s="24"/>
+        <v>187</v>
+      </c>
+      <c r="B189" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>771</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="F189" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="G189" s="24" t="s">
+        <v>774</v>
+      </c>
       <c r="H189" s="8"/>
     </row>
     <row r="190" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9">
-        <v>14</v>
-      </c>
-      <c r="B190" s="24"/>
-      <c r="C190" s="24"/>
-      <c r="D190" s="24"/>
-      <c r="E190" s="24"/>
-      <c r="F190" s="24"/>
-      <c r="G190" s="24"/>
+        <v>188</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C190" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="F190" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="G190" s="24" t="s">
+        <v>775</v>
+      </c>
       <c r="H190" s="8"/>
     </row>
     <row r="191" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="9">
-        <v>14</v>
-      </c>
-      <c r="B191" s="24"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="24"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="24"/>
-      <c r="G191" s="24"/>
+        <v>189</v>
+      </c>
+      <c r="B191" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>785</v>
+      </c>
+      <c r="D191" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="24" t="s">
+        <v>803</v>
+      </c>
+      <c r="F191" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="G191" s="24" t="s">
+        <v>776</v>
+      </c>
       <c r="H191" s="8"/>
     </row>
     <row r="192" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9">
-        <v>14</v>
-      </c>
-      <c r="B192" s="24"/>
-      <c r="C192" s="24"/>
-      <c r="D192" s="24"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="24"/>
-      <c r="G192" s="24"/>
+        <v>190</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="D192" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="F192" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="G192" s="24" t="s">
+        <v>777</v>
+      </c>
       <c r="H192" s="8"/>
     </row>
     <row r="193" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9">
-        <v>14</v>
-      </c>
-      <c r="B193" s="24"/>
-      <c r="C193" s="24"/>
-      <c r="D193" s="24"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="24"/>
-      <c r="G193" s="24"/>
+        <v>191</v>
+      </c>
+      <c r="B193" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="D193" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="F193" s="24" t="s">
+        <v>790</v>
+      </c>
+      <c r="G193" s="24" t="s">
+        <v>778</v>
+      </c>
       <c r="H193" s="8"/>
     </row>
     <row r="194" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9">
-        <v>14</v>
-      </c>
-      <c r="B194" s="24"/>
-      <c r="C194" s="24"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="24"/>
+        <v>192</v>
+      </c>
+      <c r="B194" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="D194" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="F194" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="G194" s="24" t="s">
+        <v>779</v>
+      </c>
       <c r="H194" s="8"/>
     </row>
     <row r="195" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="9">
-        <v>14</v>
-      </c>
-      <c r="B195" s="24"/>
-      <c r="C195" s="24"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="24"/>
-      <c r="G195" s="24"/>
+        <v>193</v>
+      </c>
+      <c r="B195" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="D195" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F195" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="G195" s="24" t="s">
+        <v>780</v>
+      </c>
       <c r="H195" s="8"/>
     </row>
     <row r="196" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9">
-        <v>14</v>
-      </c>
-      <c r="B196" s="24"/>
-      <c r="C196" s="24"/>
-      <c r="D196" s="24"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="24"/>
-      <c r="G196" s="24"/>
+        <v>194</v>
+      </c>
+      <c r="B196" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="D196" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F196" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="G196" s="24" t="s">
+        <v>781</v>
+      </c>
       <c r="H196" s="8"/>
     </row>
     <row r="197" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9">
-        <v>14</v>
-      </c>
-      <c r="B197" s="24"/>
-      <c r="C197" s="24"/>
-      <c r="D197" s="24"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="24"/>
-      <c r="G197" s="24"/>
+        <v>195</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C197" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="D197" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F197" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="G197" s="24" t="s">
+        <v>782</v>
+      </c>
       <c r="H197" s="8"/>
     </row>
     <row r="198" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="9">
-        <v>14</v>
-      </c>
-      <c r="B198" s="24"/>
-      <c r="C198" s="24"/>
-      <c r="D198" s="24"/>
-      <c r="E198" s="24"/>
-      <c r="F198" s="24"/>
-      <c r="G198" s="24"/>
+        <v>196</v>
+      </c>
+      <c r="B198" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C198" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="D198" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F198" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="G198" s="24" t="s">
+        <v>783</v>
+      </c>
       <c r="H198" s="8"/>
     </row>
     <row r="199" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="9">
-        <v>14</v>
-      </c>
-      <c r="B199" s="24"/>
-      <c r="C199" s="24"/>
-      <c r="D199" s="24"/>
-      <c r="E199" s="24"/>
-      <c r="F199" s="24"/>
-      <c r="G199" s="24"/>
+        <v>197</v>
+      </c>
+      <c r="B199" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C199" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="D199" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="F199" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="G199" s="24" t="s">
+        <v>825</v>
+      </c>
       <c r="H199" s="8"/>
     </row>
     <row r="200" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9">
-        <v>14</v>
-      </c>
-      <c r="B200" s="24"/>
-      <c r="C200" s="24"/>
-      <c r="D200" s="24"/>
-      <c r="E200" s="24"/>
-      <c r="F200" s="24"/>
-      <c r="G200" s="24"/>
+        <v>198</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="D200" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="F200" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="G200" s="24" t="s">
+        <v>826</v>
+      </c>
       <c r="H200" s="8"/>
     </row>
     <row r="201" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9">
-        <v>14</v>
-      </c>
-      <c r="B201" s="24"/>
-      <c r="C201" s="24"/>
-      <c r="D201" s="24"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="24"/>
-      <c r="G201" s="24"/>
+        <v>199</v>
+      </c>
+      <c r="B201" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C201" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="D201" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="F201" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="G201" s="24" t="s">
+        <v>827</v>
+      </c>
       <c r="H201" s="8"/>
     </row>
     <row r="202" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9">
-        <v>14</v>
-      </c>
-      <c r="B202" s="24"/>
-      <c r="C202" s="24"/>
-      <c r="D202" s="24"/>
-      <c r="E202" s="24"/>
-      <c r="F202" s="24"/>
-      <c r="G202" s="24"/>
+        <v>200</v>
+      </c>
+      <c r="B202" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>814</v>
+      </c>
+      <c r="D202" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="F202" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="G202" s="24" t="s">
+        <v>828</v>
+      </c>
       <c r="H202" s="8"/>
     </row>
     <row r="203" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9">
-        <v>14</v>
-      </c>
-      <c r="B203" s="24"/>
-      <c r="C203" s="24"/>
-      <c r="D203" s="24"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="24"/>
-      <c r="G203" s="24"/>
+        <v>201</v>
+      </c>
+      <c r="B203" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="C203" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="D203" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="F203" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="G203" s="24" t="s">
+        <v>857</v>
+      </c>
       <c r="H203" s="8"/>
     </row>
     <row r="204" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9">
-        <v>14</v>
-      </c>
-      <c r="B204" s="24"/>
-      <c r="C204" s="24"/>
-      <c r="D204" s="24"/>
-      <c r="E204" s="24"/>
-      <c r="F204" s="24"/>
-      <c r="G204" s="24"/>
+        <v>202</v>
+      </c>
+      <c r="B204" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="C204" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="D204" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" s="24" t="s">
+        <v>831</v>
+      </c>
+      <c r="F204" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="G204" s="26" t="s">
+        <v>863</v>
+      </c>
       <c r="H204" s="8"/>
     </row>
     <row r="205" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9">
-        <v>14</v>
-      </c>
-      <c r="B205" s="25"/>
-      <c r="C205" s="25"/>
-      <c r="D205" s="25"/>
-      <c r="E205" s="25"/>
-      <c r="F205" s="25"/>
-      <c r="G205" s="25"/>
+        <v>203</v>
+      </c>
+      <c r="B205" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C205" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="D205" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="F205" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="G205" s="25" t="s">
+        <v>864</v>
+      </c>
       <c r="H205" s="8"/>
     </row>
     <row r="206" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9">
-        <v>14</v>
-      </c>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
-      <c r="D206" s="25"/>
-      <c r="E206" s="25"/>
-      <c r="F206" s="25"/>
-      <c r="G206" s="25"/>
+        <v>204</v>
+      </c>
+      <c r="B206" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C206" s="25" t="s">
+        <v>836</v>
+      </c>
+      <c r="D206" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" s="25" t="s">
+        <v>833</v>
+      </c>
+      <c r="F206" s="25" t="s">
+        <v>855</v>
+      </c>
+      <c r="G206" s="25" t="s">
+        <v>865</v>
+      </c>
       <c r="H206" s="8"/>
     </row>
     <row r="207" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9">
-        <v>14</v>
-      </c>
-      <c r="B207" s="25"/>
-      <c r="C207" s="25"/>
-      <c r="D207" s="25"/>
-      <c r="E207" s="25"/>
-      <c r="F207" s="25"/>
-      <c r="G207" s="25"/>
+        <v>205</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="D207" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="25" t="s">
+        <v>834</v>
+      </c>
+      <c r="F207" s="25" t="s">
+        <v>856</v>
+      </c>
+      <c r="G207" s="25" t="s">
+        <v>858</v>
+      </c>
       <c r="H207" s="8"/>
     </row>
     <row r="208" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9">
-        <v>14</v>
-      </c>
-      <c r="B208" s="25"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="25"/>
-      <c r="E208" s="25"/>
-      <c r="F208" s="25"/>
-      <c r="G208" s="25"/>
+        <v>206</v>
+      </c>
+      <c r="B208" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C208" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="D208" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="F208" s="25" t="s">
+        <v>856</v>
+      </c>
+      <c r="G208" s="25" t="s">
+        <v>859</v>
+      </c>
       <c r="H208" s="8"/>
     </row>
     <row r="209" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="9">
-        <v>14</v>
-      </c>
-      <c r="B209" s="25"/>
-      <c r="C209" s="25"/>
-      <c r="D209" s="25"/>
-      <c r="E209" s="25"/>
-      <c r="F209" s="25"/>
-      <c r="G209" s="25"/>
+        <v>207</v>
+      </c>
+      <c r="B209" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C209" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="D209" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="25" t="s">
+        <v>874</v>
+      </c>
+      <c r="F209" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="G209" s="25" t="s">
+        <v>860</v>
+      </c>
       <c r="H209" s="8"/>
     </row>
     <row r="210" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9">
-        <v>14</v>
-      </c>
-      <c r="B210" s="25"/>
-      <c r="C210" s="25"/>
-      <c r="D210" s="25"/>
-      <c r="E210" s="25"/>
-      <c r="F210" s="25"/>
-      <c r="G210" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="B210" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C210" s="25" t="s">
+        <v>840</v>
+      </c>
+      <c r="D210" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="F210" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="G210" s="25" t="s">
+        <v>861</v>
+      </c>
       <c r="H210" s="8"/>
     </row>
     <row r="211" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9">
-        <v>14</v>
-      </c>
-      <c r="B211" s="25"/>
-      <c r="C211" s="25"/>
-      <c r="D211" s="25"/>
-      <c r="E211" s="25"/>
-      <c r="F211" s="25"/>
-      <c r="G211" s="25"/>
+        <v>209</v>
+      </c>
+      <c r="B211" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C211" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="D211" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="F211" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="G211" s="25" t="s">
+        <v>862</v>
+      </c>
       <c r="H211" s="8"/>
     </row>
     <row r="212" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9">
-        <v>14</v>
-      </c>
-      <c r="B212" s="25"/>
-      <c r="C212" s="25"/>
-      <c r="D212" s="25"/>
-      <c r="E212" s="25"/>
-      <c r="F212" s="25"/>
-      <c r="G212" s="25"/>
+        <v>210</v>
+      </c>
+      <c r="B212" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C212" s="25" t="s">
+        <v>842</v>
+      </c>
+      <c r="D212" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="F212" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="G212" s="25" t="s">
+        <v>866</v>
+      </c>
       <c r="H212" s="8"/>
     </row>
     <row r="213" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="9">
-        <v>14</v>
-      </c>
-      <c r="B213" s="25"/>
-      <c r="C213" s="25"/>
-      <c r="D213" s="25"/>
-      <c r="E213" s="25"/>
-      <c r="F213" s="25"/>
-      <c r="G213" s="25"/>
+        <v>211</v>
+      </c>
+      <c r="B213" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C213" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="D213" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="F213" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="G213" s="25" t="s">
+        <v>867</v>
+      </c>
       <c r="H213" s="8"/>
     </row>
     <row r="214" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9">
-        <v>14</v>
-      </c>
-      <c r="B214" s="25"/>
-      <c r="C214" s="25"/>
-      <c r="D214" s="25"/>
-      <c r="E214" s="25"/>
-      <c r="F214" s="25"/>
-      <c r="G214" s="25"/>
+        <v>212</v>
+      </c>
+      <c r="B214" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C214" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="D214" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="25" t="s">
+        <v>879</v>
+      </c>
+      <c r="F214" s="25" t="s">
+        <v>890</v>
+      </c>
+      <c r="G214" s="25" t="s">
+        <v>868</v>
+      </c>
       <c r="H214" s="8"/>
     </row>
     <row r="215" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9">
-        <v>14</v>
-      </c>
-      <c r="B215" s="25"/>
-      <c r="C215" s="25"/>
-      <c r="D215" s="25"/>
-      <c r="E215" s="25"/>
+        <v>213</v>
+      </c>
+      <c r="B215" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C215" s="25" t="s">
+        <v>845</v>
+      </c>
+      <c r="D215" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" s="25" t="s">
+        <v>880</v>
+      </c>
       <c r="F215" s="25"/>
-      <c r="G215" s="25"/>
+      <c r="G215" s="25" t="s">
+        <v>869</v>
+      </c>
       <c r="H215" s="8"/>
     </row>
     <row r="216" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="9">
-        <v>14</v>
-      </c>
-      <c r="B216" s="25"/>
-      <c r="C216" s="25"/>
-      <c r="D216" s="25"/>
-      <c r="E216" s="25"/>
+        <v>214</v>
+      </c>
+      <c r="B216" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C216" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="D216" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="25" t="s">
+        <v>881</v>
+      </c>
       <c r="F216" s="25"/>
-      <c r="G216" s="25"/>
+      <c r="G216" s="25" t="s">
+        <v>870</v>
+      </c>
       <c r="H216" s="8"/>
     </row>
     <row r="217" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="9">
-        <v>14</v>
-      </c>
-      <c r="B217" s="25"/>
-      <c r="C217" s="25"/>
-      <c r="D217" s="25"/>
-      <c r="E217" s="25"/>
+        <v>215</v>
+      </c>
+      <c r="B217" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C217" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="D217" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" s="25" t="s">
+        <v>882</v>
+      </c>
       <c r="F217" s="25"/>
-      <c r="G217" s="25"/>
+      <c r="G217" s="25" t="s">
+        <v>871</v>
+      </c>
       <c r="H217" s="8"/>
     </row>
     <row r="218" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9">
-        <v>14</v>
-      </c>
-      <c r="B218" s="13"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="13"/>
-      <c r="E218" s="13"/>
+        <v>216</v>
+      </c>
+      <c r="B218" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="D218" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218" s="13" t="s">
+        <v>883</v>
+      </c>
       <c r="F218" s="13"/>
-      <c r="G218" s="13"/>
+      <c r="G218" s="25" t="s">
+        <v>872</v>
+      </c>
       <c r="H218" s="8"/>
     </row>
     <row r="219" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9">
-        <v>14</v>
-      </c>
-      <c r="B219" s="13"/>
-      <c r="C219" s="13"/>
-      <c r="D219" s="13"/>
-      <c r="E219" s="13"/>
+        <v>217</v>
+      </c>
+      <c r="B219" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="D219" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" s="13" t="s">
+        <v>884</v>
+      </c>
       <c r="F219" s="13"/>
-      <c r="G219" s="13"/>
+      <c r="G219" s="25" t="s">
+        <v>873</v>
+      </c>
       <c r="H219" s="8"/>
     </row>
     <row r="220" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
       <c r="F220" s="13"/>
-      <c r="G220" s="13"/>
+      <c r="G220" s="25"/>
       <c r="H220" s="8"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="9">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="31">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/antivirus/antivirus2.xlsx
+++ b/antivirus/antivirus2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silverit\Desktop\goremad-2022\antivirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david-cc\Documents\goremad-2022\antivirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCDCA16-3E2A-4261-B60E-AE692451CA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="910">
   <si>
     <t>INSTALACIÓN DE ANTIVIRUS</t>
   </si>
@@ -2395,9 +2396,6 @@
     <t>Wilson Tarifa Yucra</t>
   </si>
   <si>
-    <t>Quispe Caceres</t>
-  </si>
-  <si>
     <t>Jose Wiliam Villena García</t>
   </si>
   <si>
@@ -2702,13 +2700,73 @@
     <t>Alessandra Georgina León</t>
   </si>
   <si>
-    <t>Rossmery Vanessa</t>
+    <t>jom Quispe Caceres</t>
+  </si>
+  <si>
+    <t>Rossmery Vanessa Mendiburn Mendoza</t>
+  </si>
+  <si>
+    <t>Diandra Zota Pizango</t>
+  </si>
+  <si>
+    <t>Victor Velazsques cardenas</t>
+  </si>
+  <si>
+    <t>Jenny Mestaza Villareal</t>
+  </si>
+  <si>
+    <t>Willians Collazos Mollendo</t>
+  </si>
+  <si>
+    <t>Ademir Espinoza Huarayo</t>
+  </si>
+  <si>
+    <t>14203-2022</t>
+  </si>
+  <si>
+    <t>172.17.1.230</t>
+  </si>
+  <si>
+    <t>SGO-16</t>
+  </si>
+  <si>
+    <t>172.17.1.213</t>
+  </si>
+  <si>
+    <t>14218-2022</t>
+  </si>
+  <si>
+    <t>14821-2022</t>
+  </si>
+  <si>
+    <t>172.17.1.80</t>
+  </si>
+  <si>
+    <t>Rogel Ckañazaca Machaca</t>
+  </si>
+  <si>
+    <t>SGO-17</t>
+  </si>
+  <si>
+    <t>SGO-18</t>
+  </si>
+  <si>
+    <t>19660-2022</t>
+  </si>
+  <si>
+    <t>172.17.1.43</t>
+  </si>
+  <si>
+    <t>Ximena Enriquez Nieto</t>
+  </si>
+  <si>
+    <t>SGO-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2743,7 +2801,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3010,11 +3068,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3044,41 +3132,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3089,11 +3176,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3374,14 +3470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3397,16 +3493,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3438,22 +3534,22 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="6"/>
@@ -3462,22 +3558,22 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="6"/>
@@ -3486,22 +3582,22 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="6"/>
@@ -3510,22 +3606,22 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="6"/>
@@ -3534,286 +3630,286 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>74</v>
       </c>
       <c r="H18" s="6"/>
@@ -3822,22 +3918,22 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>75</v>
       </c>
       <c r="H19" s="6"/>
@@ -3846,22 +3942,22 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H20" s="6"/>
@@ -3870,22 +3966,22 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>93</v>
       </c>
       <c r="H21" s="6"/>
@@ -3894,22 +3990,22 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>94</v>
       </c>
       <c r="H22" s="6"/>
@@ -3918,19 +4014,19 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>105</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -3942,22 +4038,22 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>113</v>
       </c>
       <c r="H24" s="6"/>
@@ -3966,22 +4062,22 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>114</v>
       </c>
       <c r="H25" s="6"/>
@@ -3990,22 +4086,22 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>115</v>
       </c>
       <c r="H26" s="6"/>
@@ -4014,22 +4110,22 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H27" s="6"/>
@@ -4038,22 +4134,22 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>117</v>
       </c>
       <c r="H28" s="6"/>
@@ -4062,22 +4158,22 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="6"/>
@@ -4086,22 +4182,22 @@
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>119</v>
       </c>
       <c r="H30" s="7"/>
@@ -4110,22 +4206,22 @@
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="D31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>120</v>
       </c>
       <c r="H31" s="7"/>
@@ -4134,22 +4230,22 @@
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>121</v>
       </c>
       <c r="H32" s="7"/>
@@ -4158,22 +4254,22 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>405</v>
       </c>
       <c r="H33" s="7"/>
@@ -4182,22 +4278,22 @@
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="16" t="s">
+      <c r="D34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>127</v>
       </c>
       <c r="H34" s="7"/>
@@ -4206,22 +4302,22 @@
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>130</v>
       </c>
       <c r="H35" s="7"/>
@@ -4230,22 +4326,22 @@
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>128</v>
       </c>
       <c r="H36" s="7"/>
@@ -4254,22 +4350,22 @@
       <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>131</v>
       </c>
       <c r="H37" s="7"/>
@@ -4278,22 +4374,22 @@
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="16" t="s">
+      <c r="D38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>129</v>
       </c>
       <c r="H38" s="7"/>
@@ -4302,22 +4398,22 @@
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="16" t="s">
+      <c r="D39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>132</v>
       </c>
       <c r="H39" s="7"/>
@@ -4326,22 +4422,22 @@
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="16" t="s">
+      <c r="D40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>133</v>
       </c>
       <c r="H40" s="7"/>
@@ -4350,22 +4446,22 @@
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="D41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>134</v>
       </c>
       <c r="H41" s="7"/>
@@ -4374,22 +4470,22 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>135</v>
       </c>
       <c r="H42" s="7"/>
@@ -4398,22 +4494,22 @@
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="16" t="s">
+      <c r="D43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>136</v>
       </c>
       <c r="H43" s="7"/>
@@ -4422,22 +4518,22 @@
       <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="16" t="s">
+      <c r="D44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>137</v>
       </c>
       <c r="H44" s="7"/>
@@ -4446,22 +4542,22 @@
       <c r="A45" s="9">
         <v>43</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="16" t="s">
+      <c r="D45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
         <v>182</v>
       </c>
       <c r="H45" s="7"/>
@@ -4470,22 +4566,22 @@
       <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="16" t="s">
+      <c r="D46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="15" t="s">
         <v>183</v>
       </c>
       <c r="H46" s="7"/>
@@ -4494,22 +4590,22 @@
       <c r="A47" s="9">
         <v>45</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="16" t="s">
+      <c r="D47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="15" t="s">
         <v>226</v>
       </c>
       <c r="H47" s="7"/>
@@ -4518,22 +4614,22 @@
       <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="D48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="15" t="s">
         <v>227</v>
       </c>
       <c r="H48" s="7"/>
@@ -4542,22 +4638,22 @@
       <c r="A49" s="9">
         <v>47</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="16" t="s">
+      <c r="D49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="15" t="s">
         <v>228</v>
       </c>
       <c r="H49" s="7"/>
@@ -4566,22 +4662,22 @@
       <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D50" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="16" t="s">
+      <c r="D50" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="15" t="s">
         <v>229</v>
       </c>
       <c r="H50" s="7"/>
@@ -4590,22 +4686,22 @@
       <c r="A51" s="9">
         <v>49</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="D51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="15" t="s">
         <v>230</v>
       </c>
       <c r="H51" s="7"/>
@@ -4614,22 +4710,22 @@
       <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D52" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="16" t="s">
+      <c r="D52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="15" t="s">
         <v>231</v>
       </c>
       <c r="H52" s="7"/>
@@ -4638,22 +4734,22 @@
       <c r="A53" s="9">
         <v>51</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D53" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="16" t="s">
+      <c r="D53" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="15" t="s">
         <v>232</v>
       </c>
       <c r="H53" s="7"/>
@@ -4662,22 +4758,22 @@
       <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D54" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="16" t="s">
+      <c r="D54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="15" t="s">
         <v>233</v>
       </c>
       <c r="H54" s="7"/>
@@ -4686,22 +4782,22 @@
       <c r="A55" s="9">
         <v>53</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="16" t="s">
+      <c r="D55" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="15" t="s">
         <v>234</v>
       </c>
       <c r="H55" s="7"/>
@@ -4710,22 +4806,22 @@
       <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D56" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="16" t="s">
+      <c r="D56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="15" t="s">
         <v>235</v>
       </c>
       <c r="H56" s="7"/>
@@ -4734,22 +4830,22 @@
       <c r="A57" s="9">
         <v>55</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="16" t="s">
+      <c r="D57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="15" t="s">
         <v>236</v>
       </c>
       <c r="H57" s="7"/>
@@ -4758,22 +4854,22 @@
       <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="16" t="s">
+      <c r="D58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" s="15" t="s">
         <v>237</v>
       </c>
       <c r="H58" s="7"/>
@@ -4782,22 +4878,22 @@
       <c r="A59" s="9">
         <v>57</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="16" t="s">
+      <c r="D59" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" s="15" t="s">
         <v>238</v>
       </c>
       <c r="H59" s="7"/>
@@ -4806,22 +4902,22 @@
       <c r="A60" s="9">
         <v>58</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D60" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="16" t="s">
+      <c r="D60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" s="15" t="s">
         <v>239</v>
       </c>
       <c r="H60" s="7"/>
@@ -4830,22 +4926,22 @@
       <c r="A61" s="9">
         <v>59</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D61" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="16" t="s">
+      <c r="D61" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G61" s="15" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4853,22 +4949,22 @@
       <c r="A62" s="9">
         <v>60</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="16" t="s">
+      <c r="D62" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="15" t="s">
         <v>241</v>
       </c>
       <c r="H62" s="7"/>
@@ -4877,22 +4973,22 @@
       <c r="A63" s="9">
         <v>61</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D63" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="16" t="s">
+      <c r="D63" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="15" t="s">
         <v>242</v>
       </c>
       <c r="H63" s="7"/>
@@ -4901,22 +4997,22 @@
       <c r="A64" s="10">
         <v>62</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="16" t="s">
+      <c r="D64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="15" t="s">
         <v>243</v>
       </c>
       <c r="H64" s="11"/>
@@ -4925,22 +5021,22 @@
       <c r="A65" s="9">
         <v>63</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D65" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="16" t="s">
+      <c r="D65" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="15" t="s">
         <v>244</v>
       </c>
       <c r="H65" s="12"/>
@@ -4949,22 +5045,22 @@
       <c r="A66" s="9">
         <v>64</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="D66" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="16" t="s">
+      <c r="D66" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F66" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G66" s="15" t="s">
         <v>245</v>
       </c>
       <c r="H66" s="7"/>
@@ -4973,22 +5069,22 @@
       <c r="A67" s="10">
         <v>65</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D67" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="19" t="s">
+      <c r="D67" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="17" t="s">
         <v>263</v>
       </c>
       <c r="H67" s="7"/>
@@ -4997,22 +5093,22 @@
       <c r="A68" s="9">
         <v>66</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="D68" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="20" t="s">
+      <c r="D68" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F68" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="G68" s="19" t="s">
+      <c r="G68" s="17" t="s">
         <v>316</v>
       </c>
       <c r="H68" s="7"/>
@@ -5021,22 +5117,22 @@
       <c r="A69" s="9">
         <v>67</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="16" t="s">
+      <c r="D69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="G69" s="17" t="s">
         <v>317</v>
       </c>
       <c r="H69" s="7"/>
@@ -5045,22 +5141,22 @@
       <c r="A70" s="10">
         <v>68</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="16" t="s">
+      <c r="D70" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="G70" s="19" t="s">
+      <c r="G70" s="17" t="s">
         <v>318</v>
       </c>
       <c r="H70" s="7"/>
@@ -5069,22 +5165,22 @@
       <c r="A71" s="9">
         <v>69</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="16" t="s">
+      <c r="D71" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="G71" s="19" t="s">
+      <c r="G71" s="17" t="s">
         <v>319</v>
       </c>
       <c r="H71" s="7"/>
@@ -5093,22 +5189,22 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="16" t="s">
+      <c r="D72" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" s="15" t="s">
         <v>320</v>
       </c>
       <c r="H72" s="7"/>
@@ -5117,22 +5213,22 @@
       <c r="A73" s="10">
         <v>71</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D73" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="16" t="s">
+      <c r="D73" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="15" t="s">
         <v>321</v>
       </c>
       <c r="H73" s="7"/>
@@ -5141,22 +5237,22 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="D74" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="16" t="s">
+      <c r="D74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="15" t="s">
         <v>322</v>
       </c>
       <c r="H74" s="7"/>
@@ -5165,22 +5261,22 @@
       <c r="A75" s="9">
         <v>73</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="15" t="s">
         <v>323</v>
       </c>
       <c r="H75" s="7"/>
@@ -5189,22 +5285,22 @@
       <c r="A76" s="10">
         <v>74</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="16" t="s">
+      <c r="D76" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="F76" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="15" t="s">
         <v>324</v>
       </c>
       <c r="H76" s="7"/>
@@ -5213,22 +5309,22 @@
       <c r="A77" s="9">
         <v>75</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="D77" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="16" t="s">
+      <c r="D77" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" s="15" t="s">
         <v>325</v>
       </c>
       <c r="H77" s="7"/>
@@ -5237,22 +5333,22 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="D78" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="16" t="s">
+      <c r="D78" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="F78" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="15" t="s">
         <v>326</v>
       </c>
       <c r="H78" s="7"/>
@@ -5261,22 +5357,22 @@
       <c r="A79" s="10">
         <v>77</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="D79" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="16" t="s">
+      <c r="D79" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="F79" s="16" t="s">
+      <c r="F79" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" s="15" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5284,22 +5380,22 @@
       <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="D80" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="16" t="s">
+      <c r="D80" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="F80" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="G80" s="15" t="s">
         <v>328</v>
       </c>
       <c r="H80" s="7"/>
@@ -5308,22 +5404,22 @@
       <c r="A81" s="9">
         <v>79</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="D81" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="16" t="s">
+      <c r="D81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" s="15" t="s">
         <v>331</v>
       </c>
       <c r="H81" s="7"/>
@@ -5332,22 +5428,22 @@
       <c r="A82" s="10">
         <v>80</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="D82" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="16" t="s">
+      <c r="D82" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="F82" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="G82" s="15" t="s">
         <v>329</v>
       </c>
       <c r="H82" s="7"/>
@@ -5356,22 +5452,22 @@
       <c r="A83" s="9">
         <v>81</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="16" t="s">
+      <c r="D83" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="15" t="s">
         <v>330</v>
       </c>
       <c r="H83" s="7"/>
@@ -5380,22 +5476,22 @@
       <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="F84" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="G84" s="15" t="s">
         <v>332</v>
       </c>
       <c r="H84" s="7"/>
@@ -5404,22 +5500,22 @@
       <c r="A85" s="10">
         <v>83</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="D85" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="16" t="s">
+      <c r="D85" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="F85" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" s="15" t="s">
         <v>333</v>
       </c>
       <c r="H85" s="7"/>
@@ -5428,22 +5524,22 @@
       <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="D86" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="16" t="s">
+      <c r="D86" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="F86" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="G86" s="15" t="s">
         <v>334</v>
       </c>
       <c r="H86" s="7"/>
@@ -5452,22 +5548,22 @@
       <c r="A87" s="9">
         <v>85</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="D87" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="16" t="s">
+      <c r="D87" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="F87" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="G87" s="16" t="s">
+      <c r="G87" s="15" t="s">
         <v>399</v>
       </c>
       <c r="H87" s="7"/>
@@ -5476,22 +5572,22 @@
       <c r="A88" s="10">
         <v>86</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D88" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="16" t="s">
+      <c r="D88" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="F88" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="G88" s="16" t="s">
+      <c r="G88" s="15" t="s">
         <v>400</v>
       </c>
       <c r="H88" s="7"/>
@@ -5500,22 +5596,22 @@
       <c r="A89" s="9">
         <v>87</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="D89" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="16" t="s">
+      <c r="D89" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="F89" s="16" t="s">
+      <c r="F89" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="G89" s="16" t="s">
+      <c r="G89" s="15" t="s">
         <v>401</v>
       </c>
       <c r="H89" s="7"/>
@@ -5524,22 +5620,22 @@
       <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="D90" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="16" t="s">
+      <c r="D90" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="F90" s="16" t="s">
+      <c r="F90" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="G90" s="16" t="s">
+      <c r="G90" s="15" t="s">
         <v>402</v>
       </c>
       <c r="H90" s="7"/>
@@ -5548,22 +5644,22 @@
       <c r="A91" s="10">
         <v>89</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="D91" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="16" t="s">
+      <c r="D91" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="F91" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="G91" s="16" t="s">
+      <c r="G91" s="15" t="s">
         <v>403</v>
       </c>
       <c r="H91" s="7"/>
@@ -5572,22 +5668,22 @@
       <c r="A92" s="9">
         <v>90</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="D92" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="23" t="s">
+      <c r="D92" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F92" s="23" t="s">
+      <c r="F92" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="G92" s="23" t="s">
+      <c r="G92" s="21" t="s">
         <v>492</v>
       </c>
       <c r="H92" s="7"/>
@@ -5596,22 +5692,22 @@
       <c r="A93" s="9">
         <v>91</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="D93" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="16" t="s">
+      <c r="D93" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="F93" s="16" t="s">
+      <c r="F93" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="G93" s="16" t="s">
+      <c r="G93" s="15" t="s">
         <v>404</v>
       </c>
       <c r="H93" s="7"/>
@@ -5620,22 +5716,22 @@
       <c r="A94" s="10">
         <v>92</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="D94" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="16" t="s">
+      <c r="D94" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="F94" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="G94" s="16" t="s">
+      <c r="G94" s="15" t="s">
         <v>406</v>
       </c>
       <c r="H94" s="7"/>
@@ -5644,22 +5740,22 @@
       <c r="A95" s="9">
         <v>93</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="D95" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="16" t="s">
+      <c r="D95" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="F95" s="16" t="s">
+      <c r="F95" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="G95" s="16" t="s">
+      <c r="G95" s="15" t="s">
         <v>407</v>
       </c>
       <c r="H95" s="7"/>
@@ -5668,22 +5764,22 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="D96" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="16" t="s">
+      <c r="D96" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="F96" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G96" s="15" t="s">
         <v>408</v>
       </c>
       <c r="H96" s="7"/>
@@ -5692,22 +5788,22 @@
       <c r="A97" s="10">
         <v>95</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="D97" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="16" t="s">
+      <c r="D97" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="F97" s="16" t="s">
+      <c r="F97" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="G97" s="16" t="s">
+      <c r="G97" s="15" t="s">
         <v>409</v>
       </c>
       <c r="H97" s="7"/>
@@ -5716,22 +5812,22 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="D98" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="16" t="s">
+      <c r="D98" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="F98" s="16" t="s">
+      <c r="F98" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="G98" s="16" t="s">
+      <c r="G98" s="15" t="s">
         <v>410</v>
       </c>
       <c r="H98" s="7"/>
@@ -5740,22 +5836,22 @@
       <c r="A99" s="9">
         <v>97</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="D99" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="16" t="s">
+      <c r="D99" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="F99" s="16" t="s">
+      <c r="F99" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="G99" s="16" t="s">
+      <c r="G99" s="15" t="s">
         <v>411</v>
       </c>
       <c r="H99" s="7"/>
@@ -5764,22 +5860,22 @@
       <c r="A100" s="10">
         <v>98</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="D100" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="16" t="s">
+      <c r="D100" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="F100" s="16" t="s">
+      <c r="F100" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="G100" s="16" t="s">
+      <c r="G100" s="15" t="s">
         <v>412</v>
       </c>
       <c r="H100" s="7"/>
@@ -5788,22 +5884,22 @@
       <c r="A101" s="9">
         <v>99</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="D101" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="16" t="s">
+      <c r="D101" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="F101" s="16" t="s">
+      <c r="F101" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="G101" s="16" t="s">
+      <c r="G101" s="15" t="s">
         <v>480</v>
       </c>
       <c r="H101" s="7"/>
@@ -5812,22 +5908,22 @@
       <c r="A102" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="D102" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="16" t="s">
+      <c r="D102" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="F102" s="16" t="s">
+      <c r="F102" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="G102" s="16" t="s">
+      <c r="G102" s="15" t="s">
         <v>415</v>
       </c>
       <c r="H102" s="7"/>
@@ -5836,22 +5932,22 @@
       <c r="A103" s="10">
         <v>101</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="F103" s="16" t="s">
+      <c r="F103" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="G103" s="16" t="s">
+      <c r="G103" s="15" t="s">
         <v>414</v>
       </c>
       <c r="H103" s="7"/>
@@ -5860,22 +5956,22 @@
       <c r="A104" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="D104" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="16" t="s">
+      <c r="D104" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="F104" s="16" t="s">
+      <c r="F104" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="G104" s="16" t="s">
+      <c r="G104" s="15" t="s">
         <v>477</v>
       </c>
       <c r="H104" s="7"/>
@@ -5884,22 +5980,22 @@
       <c r="A105" s="9">
         <v>103</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D105" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="16" t="s">
+      <c r="D105" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="F105" s="16" t="s">
+      <c r="F105" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="G105" s="16" t="s">
+      <c r="G105" s="15" t="s">
         <v>478</v>
       </c>
       <c r="H105" s="7"/>
@@ -5908,22 +6004,22 @@
       <c r="A106" s="10">
         <v>104</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D106" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="16" t="s">
+      <c r="D106" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="F106" s="16" t="s">
+      <c r="F106" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="G106" s="16" t="s">
+      <c r="G106" s="15" t="s">
         <v>479</v>
       </c>
       <c r="H106" s="7"/>
@@ -5932,22 +6028,22 @@
       <c r="A107" s="9">
         <v>105</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="D107" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="16" t="s">
+      <c r="D107" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="F107" s="16" t="s">
+      <c r="F107" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="G107" s="16" t="s">
+      <c r="G107" s="15" t="s">
         <v>413</v>
       </c>
       <c r="H107" s="7"/>
@@ -5956,22 +6052,22 @@
       <c r="A108" s="9">
         <v>106</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D108" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="16" t="s">
+      <c r="D108" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="G108" s="16" t="s">
+      <c r="G108" s="15" t="s">
         <v>481</v>
       </c>
       <c r="H108" s="7"/>
@@ -5980,22 +6076,22 @@
       <c r="A109" s="10">
         <v>107</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C109" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="D109" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="16" t="s">
+      <c r="D109" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="F109" s="16" t="s">
+      <c r="F109" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="G109" s="16" t="s">
+      <c r="G109" s="15" t="s">
         <v>482</v>
       </c>
       <c r="H109" s="7"/>
@@ -6004,22 +6100,22 @@
       <c r="A110" s="9">
         <v>108</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="D110" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="16" t="s">
+      <c r="D110" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="F110" s="16" t="s">
+      <c r="F110" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="G110" s="16" t="s">
+      <c r="G110" s="15" t="s">
         <v>483</v>
       </c>
       <c r="H110" s="7"/>
@@ -6028,22 +6124,22 @@
       <c r="A111" s="9">
         <v>109</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="D111" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="16" t="s">
+      <c r="D111" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="F111" s="16" t="s">
+      <c r="F111" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="G111" s="16" t="s">
+      <c r="G111" s="15" t="s">
         <v>484</v>
       </c>
       <c r="H111" s="7"/>
@@ -6052,22 +6148,22 @@
       <c r="A112" s="10">
         <v>110</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C112" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="D112" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="16" t="s">
+      <c r="D112" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="F112" s="16" t="s">
+      <c r="F112" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="G112" s="16" t="s">
+      <c r="G112" s="15" t="s">
         <v>485</v>
       </c>
       <c r="H112" s="7"/>
@@ -6076,22 +6172,22 @@
       <c r="A113" s="9">
         <v>111</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C113" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="D113" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="16" t="s">
+      <c r="D113" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="F113" s="16" t="s">
+      <c r="F113" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="G113" s="16" t="s">
+      <c r="G113" s="15" t="s">
         <v>486</v>
       </c>
       <c r="H113" s="7"/>
@@ -6100,22 +6196,22 @@
       <c r="A114" s="9">
         <v>112</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="D114" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="F114" s="16" t="s">
+      <c r="F114" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="G114" s="16" t="s">
+      <c r="G114" s="15" t="s">
         <v>487</v>
       </c>
       <c r="H114" s="7"/>
@@ -6124,22 +6220,22 @@
       <c r="A115" s="10">
         <v>113</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="D115" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="16" t="s">
+      <c r="D115" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="F115" s="16" t="s">
+      <c r="F115" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="G115" s="16" t="s">
+      <c r="G115" s="15" t="s">
         <v>491</v>
       </c>
       <c r="H115" s="7"/>
@@ -6148,22 +6244,22 @@
       <c r="A116" s="9">
         <v>114</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="D116" s="16" t="s">
+      <c r="D116" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="F116" s="16" t="s">
+      <c r="F116" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="G116" s="16" t="s">
+      <c r="G116" s="15" t="s">
         <v>488</v>
       </c>
       <c r="H116" s="7"/>
@@ -6172,22 +6268,22 @@
       <c r="A117" s="9">
         <v>115</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="D117" s="16" t="s">
+      <c r="D117" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="F117" s="16" t="s">
+      <c r="F117" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="G117" s="16" t="s">
+      <c r="G117" s="15" t="s">
         <v>489</v>
       </c>
       <c r="H117" s="7"/>
@@ -6196,22 +6292,22 @@
       <c r="A118" s="10">
         <v>116</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="D118" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="16" t="s">
+      <c r="D118" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="F118" s="16" t="s">
+      <c r="F118" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="G118" s="16" t="s">
+      <c r="G118" s="15" t="s">
         <v>490</v>
       </c>
       <c r="H118" s="7"/>
@@ -6220,22 +6316,22 @@
       <c r="A119" s="9">
         <v>117</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="D119" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="16" t="s">
+      <c r="D119" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="F119" s="16" t="s">
+      <c r="F119" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="G119" s="16" t="s">
+      <c r="G119" s="15" t="s">
         <v>501</v>
       </c>
       <c r="H119" s="7"/>
@@ -6244,22 +6340,22 @@
       <c r="A120" s="9">
         <v>118</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="D120" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="16" t="s">
+      <c r="D120" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="F120" s="16" t="s">
+      <c r="F120" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="G120" s="16" t="s">
+      <c r="G120" s="15" t="s">
         <v>502</v>
       </c>
       <c r="H120" s="7"/>
@@ -6268,22 +6364,22 @@
       <c r="A121" s="10">
         <v>119</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="D121" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="16" t="s">
+      <c r="D121" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="F121" s="16" t="s">
+      <c r="F121" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="G121" s="16" t="s">
+      <c r="G121" s="15" t="s">
         <v>503</v>
       </c>
       <c r="H121" s="7"/>
@@ -6292,22 +6388,22 @@
       <c r="A122" s="9">
         <v>120</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C122" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="D122" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="23" t="s">
+      <c r="D122" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="F122" s="23" t="s">
+      <c r="F122" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="G122" s="16" t="s">
+      <c r="G122" s="15" t="s">
         <v>504</v>
       </c>
       <c r="H122" s="7"/>
@@ -6316,22 +6412,22 @@
       <c r="A123" s="9">
         <v>121</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C123" s="16" t="s">
+      <c r="C123" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="D123" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="16" t="s">
+      <c r="D123" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="F123" s="16" t="s">
+      <c r="F123" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="G123" s="16" t="s">
+      <c r="G123" s="15" t="s">
         <v>505</v>
       </c>
       <c r="H123" s="7"/>
@@ -6340,22 +6436,22 @@
       <c r="A124" s="10">
         <v>122</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C124" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="D124" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="16" t="s">
+      <c r="D124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="F124" s="16" t="s">
+      <c r="F124" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="G124" s="16" t="s">
+      <c r="G124" s="15" t="s">
         <v>506</v>
       </c>
       <c r="H124" s="7"/>
@@ -6364,22 +6460,22 @@
       <c r="A125" s="9">
         <v>123</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="C125" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="D125" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="F125" s="16" t="s">
+      <c r="F125" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="G125" s="16" t="s">
+      <c r="G125" s="15" t="s">
         <v>507</v>
       </c>
       <c r="H125" s="7"/>
@@ -6388,22 +6484,22 @@
       <c r="A126" s="9">
         <v>124</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C126" s="16" t="s">
+      <c r="C126" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="D126" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="16" t="s">
+      <c r="D126" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="F126" s="16" t="s">
+      <c r="F126" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="G126" s="16" t="s">
+      <c r="G126" s="15" t="s">
         <v>508</v>
       </c>
       <c r="H126" s="7"/>
@@ -6412,22 +6508,22 @@
       <c r="A127" s="10">
         <v>125</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="C127" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="D127" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="16" t="s">
+      <c r="D127" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="F127" s="16" t="s">
+      <c r="F127" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="G127" s="16" t="s">
+      <c r="G127" s="15" t="s">
         <v>509</v>
       </c>
       <c r="H127" s="7"/>
@@ -6436,22 +6532,22 @@
       <c r="A128" s="9">
         <v>126</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="C128" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="D128" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" s="16" t="s">
+      <c r="D128" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="F128" s="16" t="s">
+      <c r="F128" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="G128" s="16" t="s">
+      <c r="G128" s="15" t="s">
         <v>510</v>
       </c>
       <c r="H128" s="7"/>
@@ -6460,22 +6556,22 @@
       <c r="A129" s="9">
         <v>127</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C129" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="D129" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="16" t="s">
+      <c r="D129" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="F129" s="16" t="s">
+      <c r="F129" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="G129" s="16" t="s">
+      <c r="G129" s="15" t="s">
         <v>511</v>
       </c>
       <c r="H129" s="7"/>
@@ -6484,22 +6580,22 @@
       <c r="A130" s="10">
         <v>128</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C130" s="16" t="s">
+      <c r="C130" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="D130" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="16" t="s">
+      <c r="D130" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="F130" s="16" t="s">
+      <c r="F130" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="G130" s="16" t="s">
+      <c r="G130" s="15" t="s">
         <v>512</v>
       </c>
       <c r="H130" s="7"/>
@@ -6508,22 +6604,22 @@
       <c r="A131" s="9">
         <v>129</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C131" s="16" t="s">
+      <c r="C131" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="D131" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="16" t="s">
+      <c r="D131" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="F131" s="16" t="s">
+      <c r="F131" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="G131" s="16" t="s">
+      <c r="G131" s="15" t="s">
         <v>513</v>
       </c>
       <c r="H131" s="7"/>
@@ -6532,22 +6628,22 @@
       <c r="A132" s="9">
         <v>130</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C132" s="16" t="s">
+      <c r="C132" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="D132" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="16" t="s">
+      <c r="D132" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="F132" s="16" t="s">
+      <c r="F132" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="G132" s="16" t="s">
+      <c r="G132" s="15" t="s">
         <v>514</v>
       </c>
       <c r="H132" s="7"/>
@@ -6556,22 +6652,22 @@
       <c r="A133" s="10">
         <v>131</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B133" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C133" s="16" t="s">
+      <c r="C133" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="D133" s="16" t="s">
+      <c r="D133" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="F133" s="16" t="s">
+      <c r="F133" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="G133" s="16" t="s">
+      <c r="G133" s="15" t="s">
         <v>515</v>
       </c>
       <c r="H133" s="7"/>
@@ -6580,22 +6676,22 @@
       <c r="A134" s="9">
         <v>132</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C134" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="D134" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="16" t="s">
+      <c r="D134" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="F134" s="16" t="s">
+      <c r="F134" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="G134" s="16" t="s">
+      <c r="G134" s="15" t="s">
         <v>516</v>
       </c>
       <c r="H134" s="7"/>
@@ -6604,22 +6700,22 @@
       <c r="A135" s="9">
         <v>133</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="D135" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="F135" s="16" t="s">
+      <c r="F135" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="G135" s="16" t="s">
+      <c r="G135" s="15" t="s">
         <v>517</v>
       </c>
       <c r="H135" s="7"/>
@@ -6628,22 +6724,22 @@
       <c r="A136" s="10">
         <v>134</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="D136" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" s="16" t="s">
+      <c r="D136" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="F136" s="16" t="s">
+      <c r="F136" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="G136" s="16" t="s">
+      <c r="G136" s="15" t="s">
         <v>572</v>
       </c>
       <c r="H136" s="7"/>
@@ -6652,22 +6748,22 @@
       <c r="A137" s="9">
         <v>135</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="C137" s="16" t="s">
+      <c r="C137" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="D137" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="16" t="s">
+      <c r="D137" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="F137" s="16" t="s">
+      <c r="F137" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="G137" s="16" t="s">
+      <c r="G137" s="15" t="s">
         <v>573</v>
       </c>
       <c r="H137" s="7"/>
@@ -6676,22 +6772,22 @@
       <c r="A138" s="9">
         <v>136</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="C138" s="16" t="s">
+      <c r="C138" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="D138" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="16" t="s">
+      <c r="D138" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="F138" s="16" t="s">
+      <c r="F138" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="G138" s="16" t="s">
+      <c r="G138" s="15" t="s">
         <v>574</v>
       </c>
       <c r="H138" s="7"/>
@@ -6700,22 +6796,22 @@
       <c r="A139" s="10">
         <v>137</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B139" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="C139" s="16" t="s">
+      <c r="C139" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="D139" s="16" t="s">
+      <c r="D139" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="F139" s="16" t="s">
+      <c r="F139" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="G139" s="16" t="s">
+      <c r="G139" s="15" t="s">
         <v>575</v>
       </c>
       <c r="H139" s="7"/>
@@ -6724,22 +6820,22 @@
       <c r="A140" s="9">
         <v>138</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="C140" s="16" t="s">
+      <c r="C140" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="D140" s="16" t="s">
+      <c r="D140" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="F140" s="16" t="s">
+      <c r="F140" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="G140" s="16" t="s">
+      <c r="G140" s="15" t="s">
         <v>576</v>
       </c>
       <c r="H140" s="7"/>
@@ -6748,22 +6844,22 @@
       <c r="A141" s="9">
         <v>139</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="C141" s="16" t="s">
+      <c r="C141" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="D141" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="16" t="s">
+      <c r="D141" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="F141" s="16" t="s">
+      <c r="F141" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="G141" s="16" t="s">
+      <c r="G141" s="15" t="s">
         <v>577</v>
       </c>
       <c r="H141" s="7"/>
@@ -6772,22 +6868,22 @@
       <c r="A142" s="9">
         <v>140</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="C142" s="16" t="s">
+      <c r="C142" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="D142" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="16" t="s">
+      <c r="D142" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="F142" s="16" t="s">
+      <c r="F142" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="G142" s="16" t="s">
+      <c r="G142" s="15" t="s">
         <v>586</v>
       </c>
       <c r="H142" s="7"/>
@@ -6796,22 +6892,22 @@
       <c r="A143" s="9">
         <v>141</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="C143" s="16" t="s">
+      <c r="C143" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="D143" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" s="16" t="s">
+      <c r="D143" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="F143" s="16" t="s">
+      <c r="F143" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="G143" s="16" t="s">
+      <c r="G143" s="15" t="s">
         <v>587</v>
       </c>
       <c r="H143" s="7"/>
@@ -6820,22 +6916,22 @@
       <c r="A144" s="9">
         <v>142</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="C144" s="16" t="s">
+      <c r="C144" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="D144" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E144" s="16" t="s">
+      <c r="D144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="F144" s="16" t="s">
+      <c r="F144" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="G144" s="16" t="s">
+      <c r="G144" s="15" t="s">
         <v>588</v>
       </c>
       <c r="H144" s="7"/>
@@ -6844,22 +6940,22 @@
       <c r="A145" s="9">
         <v>143</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B145" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="C145" s="16" t="s">
+      <c r="C145" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="D145" s="16" t="s">
+      <c r="D145" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F145" s="16" t="s">
+      <c r="F145" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="G145" s="16" t="s">
+      <c r="G145" s="15" t="s">
         <v>589</v>
       </c>
       <c r="H145" s="7"/>
@@ -6868,22 +6964,22 @@
       <c r="A146" s="9">
         <v>144</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="C146" s="16" t="s">
+      <c r="C146" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="D146" s="16" t="s">
+      <c r="D146" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="F146" s="16" t="s">
+      <c r="F146" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="G146" s="16" t="s">
+      <c r="G146" s="15" t="s">
         <v>590</v>
       </c>
       <c r="H146" s="7"/>
@@ -6892,22 +6988,22 @@
       <c r="A147" s="9">
         <v>145</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B147" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="C147" s="16" t="s">
+      <c r="C147" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="D147" s="16" t="s">
+      <c r="D147" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="F147" s="16" t="s">
+      <c r="F147" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="G147" s="16" t="s">
+      <c r="G147" s="15" t="s">
         <v>601</v>
       </c>
       <c r="H147" s="7"/>
@@ -6916,22 +7012,22 @@
       <c r="A148" s="9">
         <v>146</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="C148" s="16" t="s">
+      <c r="C148" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="D148" s="16" t="s">
+      <c r="D148" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="F148" s="16" t="s">
+      <c r="F148" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="G148" s="16" t="s">
+      <c r="G148" s="15" t="s">
         <v>602</v>
       </c>
       <c r="H148" s="7"/>
@@ -6940,22 +7036,22 @@
       <c r="A149" s="9">
         <v>147</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="C149" s="16" t="s">
+      <c r="C149" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="D149" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" s="16" t="s">
+      <c r="D149" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="F149" s="16" t="s">
+      <c r="F149" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="G149" s="16" t="s">
+      <c r="G149" s="15" t="s">
         <v>603</v>
       </c>
       <c r="H149" s="7"/>
@@ -6964,22 +7060,22 @@
       <c r="A150" s="9">
         <v>148</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="C150" s="16" t="s">
+      <c r="C150" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="D150" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" s="16" t="s">
+      <c r="D150" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="F150" s="16" t="s">
+      <c r="F150" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="G150" s="16" t="s">
+      <c r="G150" s="15" t="s">
         <v>604</v>
       </c>
       <c r="H150" s="7"/>
@@ -6988,22 +7084,22 @@
       <c r="A151" s="9">
         <v>149</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="B151" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="C151" s="16" t="s">
+      <c r="C151" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="D151" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" s="16" t="s">
+      <c r="D151" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="F151" s="16" t="s">
+      <c r="F151" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="G151" s="16" t="s">
+      <c r="G151" s="15" t="s">
         <v>605</v>
       </c>
       <c r="H151" s="7"/>
@@ -7012,22 +7108,22 @@
       <c r="A152" s="9">
         <v>150</v>
       </c>
-      <c r="B152" s="24" t="s">
+      <c r="B152" s="22" t="s">
         <v>585</v>
       </c>
-      <c r="C152" s="24" t="s">
+      <c r="C152" s="22" t="s">
         <v>670</v>
       </c>
-      <c r="D152" s="24" t="s">
+      <c r="D152" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E152" s="24" t="s">
+      <c r="E152" s="22" t="s">
         <v>725</v>
       </c>
-      <c r="F152" s="24" t="s">
+      <c r="F152" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="G152" s="24" t="s">
+      <c r="G152" s="22" t="s">
         <v>726</v>
       </c>
       <c r="H152" s="7"/>
@@ -7036,22 +7132,22 @@
       <c r="A153" s="9">
         <v>151</v>
       </c>
-      <c r="B153" s="16" t="s">
+      <c r="B153" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C153" s="16" t="s">
+      <c r="C153" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="D153" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153" s="16" t="s">
+      <c r="D153" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="F153" s="16" t="s">
+      <c r="F153" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="G153" s="16" t="s">
+      <c r="G153" s="15" t="s">
         <v>639</v>
       </c>
       <c r="H153" s="7"/>
@@ -7060,22 +7156,22 @@
       <c r="A154" s="9">
         <v>152</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C154" s="16" t="s">
+      <c r="C154" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="D154" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154" s="16" t="s">
+      <c r="D154" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="15" t="s">
         <v>650</v>
       </c>
-      <c r="F154" s="16" t="s">
+      <c r="F154" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="G154" s="16" t="s">
+      <c r="G154" s="15" t="s">
         <v>640</v>
       </c>
       <c r="H154" s="7"/>
@@ -7084,22 +7180,22 @@
       <c r="A155" s="9">
         <v>153</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C155" s="16" t="s">
+      <c r="C155" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="D155" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" s="16" t="s">
+      <c r="D155" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="F155" s="16" t="s">
+      <c r="F155" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="G155" s="16" t="s">
+      <c r="G155" s="15" t="s">
         <v>641</v>
       </c>
       <c r="H155" s="7"/>
@@ -7108,22 +7204,22 @@
       <c r="A156" s="9">
         <v>154</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="B156" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C156" s="16" t="s">
+      <c r="C156" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="D156" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E156" s="16" t="s">
+      <c r="D156" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="F156" s="16" t="s">
+      <c r="F156" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="G156" s="16" t="s">
+      <c r="G156" s="15" t="s">
         <v>642</v>
       </c>
       <c r="H156" s="7"/>
@@ -7132,22 +7228,22 @@
       <c r="A157" s="9">
         <v>155</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C157" s="16" t="s">
+      <c r="C157" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="D157" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" s="16" t="s">
+      <c r="D157" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="15" t="s">
         <v>652</v>
       </c>
-      <c r="F157" s="16" t="s">
+      <c r="F157" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="G157" s="16" t="s">
+      <c r="G157" s="15" t="s">
         <v>643</v>
       </c>
       <c r="H157" s="11"/>
@@ -7156,70 +7252,70 @@
       <c r="A158" s="9">
         <v>156</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="C158" s="17" t="s">
         <v>634</v>
       </c>
-      <c r="D158" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" s="19" t="s">
+      <c r="D158" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="F158" s="19" t="s">
+      <c r="F158" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="G158" s="16" t="s">
+      <c r="G158" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="H158" s="15"/>
+      <c r="H158" s="14"/>
     </row>
     <row r="159" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>157</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="D159" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E159" s="21" t="s">
+      <c r="D159" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F159" s="21" t="s">
+      <c r="F159" s="19" t="s">
         <v>662</v>
       </c>
-      <c r="G159" s="16" t="s">
+      <c r="G159" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="H159" s="14"/>
+      <c r="H159" s="13"/>
     </row>
     <row r="160" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>158</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="D160" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" s="22" t="s">
+      <c r="D160" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="20" t="s">
         <v>654</v>
       </c>
-      <c r="F160" s="22" t="s">
+      <c r="F160" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="G160" s="16" t="s">
+      <c r="G160" s="15" t="s">
         <v>646</v>
       </c>
       <c r="H160" s="7"/>
@@ -7228,22 +7324,22 @@
       <c r="A161" s="9">
         <v>159</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="B161" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="C161" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="D161" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E161" s="16" t="s">
+      <c r="D161" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="F161" s="16" t="s">
+      <c r="F161" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="G161" s="16" t="s">
+      <c r="G161" s="15" t="s">
         <v>647</v>
       </c>
       <c r="H161" s="7"/>
@@ -7252,22 +7348,22 @@
       <c r="A162" s="9">
         <v>160</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="C162" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D162" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E162" s="16" t="s">
+      <c r="D162" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="F162" s="16" t="s">
+      <c r="F162" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="G162" s="16" t="s">
+      <c r="G162" s="15" t="s">
         <v>690</v>
       </c>
       <c r="H162" s="7"/>
@@ -7276,22 +7372,22 @@
       <c r="A163" s="9">
         <v>161</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C163" s="16" t="s">
+      <c r="C163" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="D163" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E163" s="16" t="s">
+      <c r="D163" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="F163" s="16" t="s">
+      <c r="F163" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="G163" s="16" t="s">
+      <c r="G163" s="15" t="s">
         <v>688</v>
       </c>
       <c r="H163" s="7"/>
@@ -7300,22 +7396,22 @@
       <c r="A164" s="9">
         <v>162</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="C164" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="D164" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" s="16" t="s">
+      <c r="D164" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="F164" s="16" t="s">
+      <c r="F164" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="G164" s="16" t="s">
+      <c r="G164" s="15" t="s">
         <v>695</v>
       </c>
       <c r="H164" s="7"/>
@@ -7324,22 +7420,22 @@
       <c r="A165" s="9">
         <v>163</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C165" s="16" t="s">
+      <c r="C165" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="D165" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165" s="16" t="s">
+      <c r="D165" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="15" t="s">
         <v>696</v>
       </c>
-      <c r="F165" s="16" t="s">
+      <c r="F165" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="G165" s="16" t="s">
+      <c r="G165" s="15" t="s">
         <v>698</v>
       </c>
       <c r="H165" s="7"/>
@@ -7348,22 +7444,22 @@
       <c r="A166" s="9">
         <v>164</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C166" s="16" t="s">
+      <c r="C166" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="D166" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" s="16" t="s">
+      <c r="D166" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="F166" s="16" t="s">
+      <c r="F166" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="G166" s="16" t="s">
+      <c r="G166" s="15" t="s">
         <v>701</v>
       </c>
       <c r="H166" s="7"/>
@@ -7372,22 +7468,22 @@
       <c r="A167" s="9">
         <v>165</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B167" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C167" s="16" t="s">
+      <c r="C167" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="D167" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E167" s="16" t="s">
+      <c r="D167" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="F167" s="16" t="s">
+      <c r="F167" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="G167" s="16" t="s">
+      <c r="G167" s="15" t="s">
         <v>704</v>
       </c>
       <c r="H167" s="7"/>
@@ -7396,22 +7492,22 @@
       <c r="A168" s="9">
         <v>166</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C168" s="24" t="s">
+      <c r="C168" s="22" t="s">
         <v>682</v>
       </c>
-      <c r="D168" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" s="24" t="s">
+      <c r="D168" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="22" t="s">
         <v>705</v>
       </c>
-      <c r="F168" s="24" t="s">
+      <c r="F168" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="G168" s="24" t="s">
+      <c r="G168" s="22" t="s">
         <v>707</v>
       </c>
       <c r="H168" s="7"/>
@@ -7420,22 +7516,22 @@
       <c r="A169" s="9">
         <v>167</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C169" s="24" t="s">
+      <c r="C169" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="D169" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E169" s="24" t="s">
+      <c r="D169" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="22" t="s">
         <v>708</v>
       </c>
-      <c r="F169" s="24" t="s">
+      <c r="F169" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="G169" s="24" t="s">
+      <c r="G169" s="22" t="s">
         <v>710</v>
       </c>
       <c r="H169" s="8"/>
@@ -7444,22 +7540,22 @@
       <c r="A170" s="9">
         <v>168</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C170" s="24">
+      <c r="C170" s="22">
         <v>12736</v>
       </c>
-      <c r="D170" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" s="24" t="s">
+      <c r="D170" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="F170" s="24" t="s">
+      <c r="F170" s="22" t="s">
         <v>712</v>
       </c>
-      <c r="G170" s="24" t="s">
+      <c r="G170" s="22" t="s">
         <v>713</v>
       </c>
       <c r="H170" s="8"/>
@@ -7468,22 +7564,22 @@
       <c r="A171" s="9">
         <v>169</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="C171" s="16" t="s">
+      <c r="C171" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="D171" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" s="16" t="s">
+      <c r="D171" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="F171" s="16" t="s">
+      <c r="F171" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="G171" s="16" t="s">
+      <c r="G171" s="15" t="s">
         <v>648</v>
       </c>
       <c r="H171" s="8"/>
@@ -7492,22 +7588,22 @@
       <c r="A172" s="9">
         <v>170</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B172" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="C172" s="16" t="s">
+      <c r="C172" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="D172" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" s="16" t="s">
+      <c r="D172" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="F172" s="23" t="s">
+      <c r="F172" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="G172" s="16" t="s">
+      <c r="G172" s="15" t="s">
         <v>689</v>
       </c>
       <c r="H172" s="8"/>
@@ -7516,22 +7612,22 @@
       <c r="A173" s="9">
         <v>171</v>
       </c>
-      <c r="B173" s="24" t="s">
+      <c r="B173" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="C173" s="24" t="s">
+      <c r="C173" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="D173" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" s="24" t="s">
+      <c r="D173" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="F173" s="24" t="s">
+      <c r="F173" s="22" t="s">
         <v>715</v>
       </c>
-      <c r="G173" s="24" t="s">
+      <c r="G173" s="22" t="s">
         <v>716</v>
       </c>
       <c r="H173" s="8"/>
@@ -7540,22 +7636,22 @@
       <c r="A174" s="9">
         <v>172</v>
       </c>
-      <c r="B174" s="24" t="s">
+      <c r="B174" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="C174" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="D174" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E174" s="24" t="s">
+      <c r="D174" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="F174" s="24" t="s">
+      <c r="F174" s="22" t="s">
         <v>721</v>
       </c>
-      <c r="G174" s="24" t="s">
+      <c r="G174" s="22" t="s">
         <v>722</v>
       </c>
       <c r="H174" s="8"/>
@@ -7564,22 +7660,22 @@
       <c r="A175" s="9">
         <v>173</v>
       </c>
-      <c r="B175" s="24" t="s">
+      <c r="B175" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="C175" s="24" t="s">
+      <c r="C175" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="D175" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E175" s="24" t="s">
+      <c r="D175" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="F175" s="24" t="s">
+      <c r="F175" s="22" t="s">
         <v>723</v>
       </c>
-      <c r="G175" s="24" t="s">
+      <c r="G175" s="22" t="s">
         <v>724</v>
       </c>
       <c r="H175" s="8"/>
@@ -7588,22 +7684,22 @@
       <c r="A176" s="9">
         <v>174</v>
       </c>
-      <c r="B176" s="24" t="s">
+      <c r="B176" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="C176" s="24" t="s">
+      <c r="C176" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="D176" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E176" s="24" t="s">
+      <c r="D176" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="22" t="s">
         <v>727</v>
       </c>
-      <c r="F176" s="24" t="s">
+      <c r="F176" s="22" t="s">
         <v>728</v>
       </c>
-      <c r="G176" s="24" t="s">
+      <c r="G176" s="22" t="s">
         <v>729</v>
       </c>
       <c r="H176" s="8"/>
@@ -7612,22 +7708,22 @@
       <c r="A177" s="9">
         <v>175</v>
       </c>
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="C177" s="24" t="s">
+      <c r="C177" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D177" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E177" s="24" t="s">
+      <c r="D177" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="22" t="s">
         <v>730</v>
       </c>
-      <c r="F177" s="24" t="s">
+      <c r="F177" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="G177" s="24" t="s">
+      <c r="G177" s="22" t="s">
         <v>732</v>
       </c>
       <c r="H177" s="8"/>
@@ -7636,22 +7732,22 @@
       <c r="A178" s="9">
         <v>176</v>
       </c>
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="C178" s="24" t="s">
+      <c r="C178" s="22" t="s">
         <v>668</v>
       </c>
-      <c r="D178" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E178" s="24" t="s">
+      <c r="D178" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="22" t="s">
         <v>734</v>
       </c>
-      <c r="F178" s="24" t="s">
+      <c r="F178" s="22" t="s">
         <v>715</v>
       </c>
-      <c r="G178" s="24" t="s">
+      <c r="G178" s="22" t="s">
         <v>733</v>
       </c>
       <c r="H178" s="8"/>
@@ -7660,22 +7756,22 @@
       <c r="A179" s="9">
         <v>177</v>
       </c>
-      <c r="B179" s="26" t="s">
+      <c r="B179" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="C179" s="24" t="s">
+      <c r="C179" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="D179" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" s="24" t="s">
+      <c r="D179" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="22" t="s">
         <v>735</v>
       </c>
-      <c r="F179" s="24" t="s">
+      <c r="F179" s="22" t="s">
         <v>736</v>
       </c>
-      <c r="G179" s="24" t="s">
+      <c r="G179" s="22" t="s">
         <v>737</v>
       </c>
       <c r="H179" s="8"/>
@@ -7684,22 +7780,22 @@
       <c r="A180" s="9">
         <v>178</v>
       </c>
-      <c r="B180" s="26" t="s">
+      <c r="B180" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="C180" s="24" t="s">
+      <c r="C180" s="22" t="s">
         <v>673</v>
       </c>
-      <c r="D180" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E180" s="24" t="s">
+      <c r="D180" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="22" t="s">
         <v>717</v>
       </c>
-      <c r="F180" s="24" t="s">
+      <c r="F180" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="G180" s="24" t="s">
+      <c r="G180" s="22" t="s">
         <v>719</v>
       </c>
       <c r="H180" s="8"/>
@@ -7708,7 +7804,7 @@
       <c r="A181" s="9">
         <v>179</v>
       </c>
-      <c r="B181" s="30" t="s">
+      <c r="B181" s="24" t="s">
         <v>666</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -7732,22 +7828,22 @@
       <c r="A182" s="9">
         <v>180</v>
       </c>
-      <c r="B182" s="30" t="s">
+      <c r="B182" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="C182" s="24" t="s">
+      <c r="C182" s="22" t="s">
         <v>742</v>
       </c>
-      <c r="D182" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E182" s="24" t="s">
+      <c r="D182" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="22" t="s">
         <v>749</v>
       </c>
-      <c r="F182" s="24" t="s">
+      <c r="F182" s="22" t="s">
         <v>743</v>
       </c>
-      <c r="G182" s="24" t="s">
+      <c r="G182" s="22" t="s">
         <v>744</v>
       </c>
       <c r="H182" s="8"/>
@@ -7756,46 +7852,46 @@
       <c r="A183" s="9">
         <v>181</v>
       </c>
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="C183" s="24" t="s">
+      <c r="C183" s="22" t="s">
         <v>748</v>
       </c>
-      <c r="D183" s="24" t="s">
+      <c r="D183" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E183" s="24" t="s">
+      <c r="E183" s="22" t="s">
         <v>753</v>
       </c>
-      <c r="F183" s="24" t="s">
+      <c r="F183" s="22" t="s">
         <v>750</v>
       </c>
-      <c r="G183" s="24" t="s">
+      <c r="G183" s="22" t="s">
         <v>745</v>
       </c>
       <c r="H183" s="8"/>
     </row>
     <row r="184" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="31">
+      <c r="A184" s="25">
         <v>182</v>
       </c>
-      <c r="B184" s="30" t="s">
+      <c r="B184" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="C184" s="24" t="s">
+      <c r="C184" s="22" t="s">
         <v>751</v>
       </c>
-      <c r="D184" s="24" t="s">
+      <c r="D184" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E184" s="24" t="s">
+      <c r="E184" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="F184" s="24" t="s">
+      <c r="F184" s="22" t="s">
         <v>754</v>
       </c>
-      <c r="G184" s="24" t="s">
+      <c r="G184" s="22" t="s">
         <v>746</v>
       </c>
       <c r="H184" s="8"/>
@@ -7804,22 +7900,22 @@
       <c r="A185" s="9">
         <v>183</v>
       </c>
-      <c r="B185" s="30" t="s">
+      <c r="B185" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="C185" s="24" t="s">
+      <c r="C185" s="22" t="s">
         <v>758</v>
       </c>
-      <c r="D185" s="24" t="s">
+      <c r="D185" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E185" s="24" t="s">
+      <c r="E185" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="F185" s="24" t="s">
+      <c r="F185" s="22" t="s">
         <v>756</v>
       </c>
-      <c r="G185" s="24" t="s">
+      <c r="G185" s="22" t="s">
         <v>747</v>
       </c>
       <c r="H185" s="8"/>
@@ -7828,22 +7924,22 @@
       <c r="A186" s="9">
         <v>184</v>
       </c>
-      <c r="B186" s="26" t="s">
+      <c r="B186" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="C186" s="24" t="s">
+      <c r="C186" s="22" t="s">
         <v>759</v>
       </c>
-      <c r="D186" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E186" s="24" t="s">
+      <c r="D186" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="F186" s="24" t="s">
+      <c r="F186" s="22" t="s">
         <v>761</v>
       </c>
-      <c r="G186" s="24" t="s">
+      <c r="G186" s="22" t="s">
         <v>762</v>
       </c>
       <c r="H186" s="8"/>
@@ -7852,22 +7948,22 @@
       <c r="A187" s="9">
         <v>185</v>
       </c>
-      <c r="B187" s="26" t="s">
+      <c r="B187" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="C187" s="24" t="s">
+      <c r="C187" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="D187" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E187" s="24" t="s">
+      <c r="D187" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="F187" s="24" t="s">
+      <c r="F187" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="G187" s="24" t="s">
+      <c r="G187" s="22" t="s">
         <v>763</v>
       </c>
       <c r="H187" s="8"/>
@@ -7876,22 +7972,22 @@
       <c r="A188" s="9">
         <v>186</v>
       </c>
-      <c r="B188" s="26" t="s">
+      <c r="B188" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="C188" s="24" t="s">
+      <c r="C188" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="D188" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E188" s="24" t="s">
+      <c r="D188" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="22" t="s">
         <v>768</v>
       </c>
-      <c r="F188" s="24" t="s">
+      <c r="F188" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="G188" s="24" t="s">
+      <c r="G188" s="22" t="s">
         <v>764</v>
       </c>
       <c r="H188" s="8"/>
@@ -7900,22 +7996,22 @@
       <c r="A189" s="9">
         <v>187</v>
       </c>
-      <c r="B189" s="26" t="s">
+      <c r="B189" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C189" s="24" t="s">
+      <c r="C189" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="D189" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E189" s="24" t="s">
+      <c r="D189" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="F189" s="24" t="s">
+      <c r="F189" s="22" t="s">
         <v>773</v>
       </c>
-      <c r="G189" s="24" t="s">
+      <c r="G189" s="22" t="s">
         <v>774</v>
       </c>
       <c r="H189" s="8"/>
@@ -7924,22 +8020,22 @@
       <c r="A190" s="9">
         <v>188</v>
       </c>
-      <c r="B190" s="26" t="s">
+      <c r="B190" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C190" s="24" t="s">
+      <c r="C190" s="22" t="s">
         <v>784</v>
       </c>
-      <c r="D190" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E190" s="24" t="s">
+      <c r="D190" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="F190" s="24" t="s">
+      <c r="F190" s="22" t="s">
         <v>787</v>
       </c>
-      <c r="G190" s="24" t="s">
+      <c r="G190" s="22" t="s">
         <v>775</v>
       </c>
       <c r="H190" s="8"/>
@@ -7948,22 +8044,22 @@
       <c r="A191" s="9">
         <v>189</v>
       </c>
-      <c r="B191" s="26" t="s">
+      <c r="B191" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C191" s="24" t="s">
+      <c r="C191" s="22" t="s">
         <v>785</v>
       </c>
-      <c r="D191" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E191" s="24" t="s">
-        <v>803</v>
-      </c>
-      <c r="F191" s="24" t="s">
-        <v>788</v>
-      </c>
-      <c r="G191" s="24" t="s">
+      <c r="D191" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="F191" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="G191" s="22" t="s">
         <v>776</v>
       </c>
       <c r="H191" s="8"/>
@@ -7972,22 +8068,22 @@
       <c r="A192" s="9">
         <v>190</v>
       </c>
-      <c r="B192" s="26" t="s">
+      <c r="B192" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C192" s="24" t="s">
-        <v>804</v>
-      </c>
-      <c r="D192" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E192" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="F192" s="24" t="s">
-        <v>789</v>
-      </c>
-      <c r="G192" s="24" t="s">
+      <c r="C192" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="F192" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="G192" s="22" t="s">
         <v>777</v>
       </c>
       <c r="H192" s="8"/>
@@ -7996,22 +8092,22 @@
       <c r="A193" s="9">
         <v>191</v>
       </c>
-      <c r="B193" s="26" t="s">
+      <c r="B193" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C193" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="D193" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E193" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="F193" s="24" t="s">
-        <v>790</v>
-      </c>
-      <c r="G193" s="24" t="s">
+      <c r="C193" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="F193" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="G193" s="22" t="s">
         <v>778</v>
       </c>
       <c r="H193" s="8"/>
@@ -8020,22 +8116,22 @@
       <c r="A194" s="9">
         <v>192</v>
       </c>
-      <c r="B194" s="26" t="s">
+      <c r="B194" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C194" s="24" t="s">
-        <v>806</v>
-      </c>
-      <c r="D194" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E194" s="24" t="s">
-        <v>800</v>
-      </c>
-      <c r="F194" s="24" t="s">
-        <v>791</v>
-      </c>
-      <c r="G194" s="24" t="s">
+      <c r="C194" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="F194" s="22" t="s">
+        <v>790</v>
+      </c>
+      <c r="G194" s="22" t="s">
         <v>779</v>
       </c>
       <c r="H194" s="8"/>
@@ -8044,22 +8140,22 @@
       <c r="A195" s="9">
         <v>193</v>
       </c>
-      <c r="B195" s="26" t="s">
+      <c r="B195" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C195" s="24" t="s">
-        <v>807</v>
-      </c>
-      <c r="D195" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E195" s="24" t="s">
-        <v>799</v>
-      </c>
-      <c r="F195" s="24" t="s">
-        <v>792</v>
-      </c>
-      <c r="G195" s="24" t="s">
+      <c r="C195" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="F195" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="G195" s="22" t="s">
         <v>780</v>
       </c>
       <c r="H195" s="8"/>
@@ -8068,22 +8164,22 @@
       <c r="A196" s="9">
         <v>194</v>
       </c>
-      <c r="B196" s="26" t="s">
+      <c r="B196" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C196" s="24" t="s">
-        <v>808</v>
-      </c>
-      <c r="D196" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E196" s="24" t="s">
-        <v>798</v>
-      </c>
-      <c r="F196" s="24" t="s">
-        <v>793</v>
-      </c>
-      <c r="G196" s="24" t="s">
+      <c r="C196" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="D196" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="G196" s="22" t="s">
         <v>781</v>
       </c>
       <c r="H196" s="8"/>
@@ -8092,22 +8188,22 @@
       <c r="A197" s="9">
         <v>195</v>
       </c>
-      <c r="B197" s="26" t="s">
+      <c r="B197" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C197" s="24" t="s">
-        <v>809</v>
-      </c>
-      <c r="D197" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E197" s="24" t="s">
-        <v>797</v>
-      </c>
-      <c r="F197" s="24" t="s">
-        <v>794</v>
-      </c>
-      <c r="G197" s="24" t="s">
+      <c r="C197" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="D197" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="F197" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="G197" s="22" t="s">
         <v>782</v>
       </c>
       <c r="H197" s="8"/>
@@ -8116,22 +8212,22 @@
       <c r="A198" s="9">
         <v>196</v>
       </c>
-      <c r="B198" s="26" t="s">
+      <c r="B198" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C198" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="D198" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E198" s="24" t="s">
-        <v>796</v>
-      </c>
-      <c r="F198" s="24" t="s">
+      <c r="C198" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="D198" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="22" t="s">
         <v>795</v>
       </c>
-      <c r="G198" s="24" t="s">
+      <c r="F198" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="G198" s="22" t="s">
         <v>783</v>
       </c>
       <c r="H198" s="8"/>
@@ -8140,23 +8236,23 @@
       <c r="A199" s="9">
         <v>197</v>
       </c>
-      <c r="B199" s="26" t="s">
+      <c r="B199" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C199" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="D199" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E199" s="24" t="s">
-        <v>819</v>
-      </c>
-      <c r="F199" s="24" t="s">
-        <v>823</v>
-      </c>
-      <c r="G199" s="24" t="s">
-        <v>825</v>
+      <c r="C199" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="F199" s="22" t="s">
+        <v>822</v>
+      </c>
+      <c r="G199" s="22" t="s">
+        <v>824</v>
       </c>
       <c r="H199" s="8"/>
     </row>
@@ -8164,23 +8260,23 @@
       <c r="A200" s="9">
         <v>198</v>
       </c>
-      <c r="B200" s="26" t="s">
+      <c r="B200" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C200" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="D200" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E200" s="24" t="s">
-        <v>822</v>
-      </c>
-      <c r="F200" s="24" t="s">
-        <v>824</v>
-      </c>
-      <c r="G200" s="24" t="s">
-        <v>826</v>
+      <c r="C200" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="F200" s="22" t="s">
+        <v>823</v>
+      </c>
+      <c r="G200" s="22" t="s">
+        <v>825</v>
       </c>
       <c r="H200" s="8"/>
     </row>
@@ -8188,23 +8284,23 @@
       <c r="A201" s="9">
         <v>199</v>
       </c>
-      <c r="B201" s="26" t="s">
+      <c r="B201" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C201" s="24" t="s">
-        <v>813</v>
-      </c>
-      <c r="D201" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E201" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="F201" s="24" t="s">
-        <v>850</v>
-      </c>
-      <c r="G201" s="24" t="s">
-        <v>827</v>
+      <c r="C201" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="F201" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="G201" s="22" t="s">
+        <v>826</v>
       </c>
       <c r="H201" s="8"/>
     </row>
@@ -8212,23 +8308,23 @@
       <c r="A202" s="9">
         <v>200</v>
       </c>
-      <c r="B202" s="26" t="s">
+      <c r="B202" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C202" s="24" t="s">
-        <v>814</v>
-      </c>
-      <c r="D202" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E202" s="24" t="s">
-        <v>830</v>
-      </c>
-      <c r="F202" s="24" t="s">
-        <v>851</v>
-      </c>
-      <c r="G202" s="24" t="s">
-        <v>828</v>
+      <c r="C202" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="F202" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="G202" s="22" t="s">
+        <v>827</v>
       </c>
       <c r="H202" s="8"/>
     </row>
@@ -8236,23 +8332,23 @@
       <c r="A203" s="9">
         <v>201</v>
       </c>
-      <c r="B203" s="24" t="s">
-        <v>815</v>
-      </c>
-      <c r="C203" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="D203" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E203" s="24" t="s">
+      <c r="B203" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="F203" s="24" t="s">
-        <v>852</v>
-      </c>
-      <c r="G203" s="24" t="s">
-        <v>857</v>
+      <c r="F203" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="G203" s="22" t="s">
+        <v>856</v>
       </c>
       <c r="H203" s="8"/>
     </row>
@@ -8260,23 +8356,23 @@
       <c r="A204" s="9">
         <v>202</v>
       </c>
-      <c r="B204" s="24" t="s">
-        <v>816</v>
-      </c>
-      <c r="C204" s="24" t="s">
-        <v>818</v>
-      </c>
-      <c r="D204" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E204" s="24" t="s">
-        <v>831</v>
-      </c>
-      <c r="F204" s="24" t="s">
-        <v>853</v>
-      </c>
-      <c r="G204" s="26" t="s">
-        <v>863</v>
+      <c r="B204" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" s="22" t="s">
+        <v>830</v>
+      </c>
+      <c r="F204" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="G204" s="23" t="s">
+        <v>862</v>
       </c>
       <c r="H204" s="8"/>
     </row>
@@ -8284,23 +8380,23 @@
       <c r="A205" s="9">
         <v>203</v>
       </c>
-      <c r="B205" s="25" t="s">
+      <c r="B205" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C205" s="22" t="s">
         <v>820</v>
       </c>
-      <c r="C205" s="25" t="s">
-        <v>821</v>
-      </c>
-      <c r="D205" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E205" s="25" t="s">
-        <v>832</v>
-      </c>
-      <c r="F205" s="25" t="s">
-        <v>854</v>
-      </c>
-      <c r="G205" s="25" t="s">
-        <v>864</v>
+      <c r="D205" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="F205" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="G205" s="22" t="s">
+        <v>863</v>
       </c>
       <c r="H205" s="8"/>
     </row>
@@ -8308,23 +8404,23 @@
       <c r="A206" s="9">
         <v>204</v>
       </c>
-      <c r="B206" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C206" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="D206" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E206" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="F206" s="25" t="s">
-        <v>855</v>
-      </c>
-      <c r="G206" s="25" t="s">
-        <v>865</v>
+      <c r="B206" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="F206" s="22" t="s">
+        <v>854</v>
+      </c>
+      <c r="G206" s="22" t="s">
+        <v>864</v>
       </c>
       <c r="H206" s="8"/>
     </row>
@@ -8332,23 +8428,23 @@
       <c r="A207" s="9">
         <v>205</v>
       </c>
-      <c r="B207" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C207" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="D207" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E207" s="25" t="s">
-        <v>834</v>
-      </c>
-      <c r="F207" s="25" t="s">
-        <v>856</v>
-      </c>
-      <c r="G207" s="25" t="s">
-        <v>858</v>
+      <c r="B207" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="F207" s="22" t="s">
+        <v>855</v>
+      </c>
+      <c r="G207" s="22" t="s">
+        <v>857</v>
       </c>
       <c r="H207" s="8"/>
     </row>
@@ -8356,23 +8452,23 @@
       <c r="A208" s="9">
         <v>206</v>
       </c>
-      <c r="B208" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C208" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="D208" s="25" t="s">
+      <c r="B208" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="D208" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E208" s="25" t="s">
-        <v>835</v>
-      </c>
-      <c r="F208" s="25" t="s">
-        <v>856</v>
-      </c>
-      <c r="G208" s="25" t="s">
-        <v>859</v>
+      <c r="E208" s="22" t="s">
+        <v>834</v>
+      </c>
+      <c r="F208" s="22" t="s">
+        <v>855</v>
+      </c>
+      <c r="G208" s="22" t="s">
+        <v>858</v>
       </c>
       <c r="H208" s="8"/>
     </row>
@@ -8380,23 +8476,23 @@
       <c r="A209" s="9">
         <v>207</v>
       </c>
-      <c r="B209" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C209" s="25" t="s">
-        <v>839</v>
-      </c>
-      <c r="D209" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E209" s="25" t="s">
-        <v>874</v>
-      </c>
-      <c r="F209" s="25" t="s">
-        <v>885</v>
-      </c>
-      <c r="G209" s="25" t="s">
-        <v>860</v>
+      <c r="B209" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>873</v>
+      </c>
+      <c r="F209" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="G209" s="22" t="s">
+        <v>859</v>
       </c>
       <c r="H209" s="8"/>
     </row>
@@ -8404,23 +8500,23 @@
       <c r="A210" s="9">
         <v>208</v>
       </c>
-      <c r="B210" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C210" s="25" t="s">
-        <v>840</v>
-      </c>
-      <c r="D210" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E210" s="25" t="s">
-        <v>875</v>
-      </c>
-      <c r="F210" s="25" t="s">
-        <v>886</v>
-      </c>
-      <c r="G210" s="25" t="s">
-        <v>861</v>
+      <c r="B210" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="F210" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="G210" s="22" t="s">
+        <v>860</v>
       </c>
       <c r="H210" s="8"/>
     </row>
@@ -8428,23 +8524,23 @@
       <c r="A211" s="9">
         <v>209</v>
       </c>
-      <c r="B211" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C211" s="25" t="s">
-        <v>841</v>
-      </c>
-      <c r="D211" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211" s="25" t="s">
-        <v>876</v>
-      </c>
-      <c r="F211" s="25" t="s">
-        <v>887</v>
-      </c>
-      <c r="G211" s="25" t="s">
-        <v>862</v>
+      <c r="B211" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="F211" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="G211" s="22" t="s">
+        <v>861</v>
       </c>
       <c r="H211" s="8"/>
     </row>
@@ -8452,23 +8548,23 @@
       <c r="A212" s="9">
         <v>210</v>
       </c>
-      <c r="B212" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C212" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="D212" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E212" s="25" t="s">
-        <v>877</v>
-      </c>
-      <c r="F212" s="25" t="s">
-        <v>888</v>
-      </c>
-      <c r="G212" s="25" t="s">
-        <v>866</v>
+      <c r="B212" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" s="22" t="s">
+        <v>876</v>
+      </c>
+      <c r="F212" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="G212" s="22" t="s">
+        <v>865</v>
       </c>
       <c r="H212" s="8"/>
     </row>
@@ -8476,23 +8572,23 @@
       <c r="A213" s="9">
         <v>211</v>
       </c>
-      <c r="B213" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C213" s="25" t="s">
-        <v>843</v>
-      </c>
-      <c r="D213" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E213" s="25" t="s">
-        <v>878</v>
-      </c>
-      <c r="F213" s="25" t="s">
-        <v>889</v>
-      </c>
-      <c r="G213" s="25" t="s">
-        <v>867</v>
+      <c r="B213" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" s="22" t="s">
+        <v>877</v>
+      </c>
+      <c r="F213" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="G213" s="22" t="s">
+        <v>866</v>
       </c>
       <c r="H213" s="8"/>
     </row>
@@ -8500,23 +8596,23 @@
       <c r="A214" s="9">
         <v>212</v>
       </c>
-      <c r="B214" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C214" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="D214" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E214" s="25" t="s">
-        <v>879</v>
-      </c>
-      <c r="F214" s="25" t="s">
+      <c r="B214" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="D214" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>878</v>
+      </c>
+      <c r="F214" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="G214" s="25" t="s">
-        <v>868</v>
+      <c r="G214" s="22" t="s">
+        <v>867</v>
       </c>
       <c r="H214" s="8"/>
     </row>
@@ -8524,21 +8620,23 @@
       <c r="A215" s="9">
         <v>213</v>
       </c>
-      <c r="B215" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C215" s="25" t="s">
-        <v>845</v>
-      </c>
-      <c r="D215" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E215" s="25" t="s">
-        <v>880</v>
-      </c>
-      <c r="F215" s="25"/>
-      <c r="G215" s="25" t="s">
-        <v>869</v>
+      <c r="B215" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C215" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="F215" s="29" t="s">
+        <v>891</v>
+      </c>
+      <c r="G215" s="22" t="s">
+        <v>868</v>
       </c>
       <c r="H215" s="8"/>
     </row>
@@ -8546,21 +8644,23 @@
       <c r="A216" s="9">
         <v>214</v>
       </c>
-      <c r="B216" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C216" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="D216" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E216" s="25" t="s">
-        <v>881</v>
-      </c>
-      <c r="F216" s="25"/>
-      <c r="G216" s="25" t="s">
-        <v>870</v>
+      <c r="B216" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C216" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="D216" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="22" t="s">
+        <v>880</v>
+      </c>
+      <c r="F216" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="G216" s="22" t="s">
+        <v>869</v>
       </c>
       <c r="H216" s="8"/>
     </row>
@@ -8568,21 +8668,23 @@
       <c r="A217" s="9">
         <v>215</v>
       </c>
-      <c r="B217" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C217" s="25" t="s">
-        <v>847</v>
-      </c>
-      <c r="D217" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E217" s="25" t="s">
-        <v>882</v>
-      </c>
-      <c r="F217" s="25"/>
-      <c r="G217" s="25" t="s">
-        <v>871</v>
+      <c r="B217" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="F217" s="29" t="s">
+        <v>892</v>
+      </c>
+      <c r="G217" s="22" t="s">
+        <v>870</v>
       </c>
       <c r="H217" s="8"/>
     </row>
@@ -8590,68 +8692,150 @@
       <c r="A218" s="9">
         <v>216</v>
       </c>
-      <c r="B218" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>848</v>
-      </c>
-      <c r="D218" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E218" s="13" t="s">
-        <v>883</v>
-      </c>
-      <c r="F218" s="13"/>
-      <c r="G218" s="25" t="s">
-        <v>872</v>
-      </c>
-      <c r="H218" s="8"/>
+      <c r="B218" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="D218" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="F218" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="G218" s="22" t="s">
+        <v>871</v>
+      </c>
+      <c r="H218" s="32"/>
     </row>
     <row r="219" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9">
         <v>217</v>
       </c>
-      <c r="B219" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="C219" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="D219" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E219" s="13" t="s">
-        <v>884</v>
-      </c>
-      <c r="F219" s="13"/>
-      <c r="G219" s="25" t="s">
-        <v>873</v>
-      </c>
-      <c r="H219" s="8"/>
-    </row>
-    <row r="220" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="9">
+      <c r="B219" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C219" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="D219" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" s="22" t="s">
+        <v>883</v>
+      </c>
+      <c r="F219" s="22" t="s">
+        <v>894</v>
+      </c>
+      <c r="G219" s="22" t="s">
+        <v>872</v>
+      </c>
+      <c r="H219" s="32"/>
+    </row>
+    <row r="220" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="10">
         <v>218</v>
       </c>
-      <c r="B220" s="13"/>
-      <c r="C220" s="13"/>
-      <c r="D220" s="13"/>
-      <c r="E220" s="13"/>
-      <c r="F220" s="13"/>
-      <c r="G220" s="25"/>
-      <c r="H220" s="8"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="9">
+      <c r="B220" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="D220" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" s="22" t="s">
+        <v>897</v>
+      </c>
+      <c r="F220" s="29" t="s">
+        <v>895</v>
+      </c>
+      <c r="G220" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="H220" s="32"/>
+    </row>
+    <row r="221" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="30">
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C221" s="33" t="s">
+        <v>900</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="F221" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="G221" s="22" t="s">
+        <v>904</v>
+      </c>
+      <c r="H221" s="32"/>
+    </row>
+    <row r="222" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="31">
         <v>220</v>
       </c>
-    </row>
+      <c r="B222" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>901</v>
+      </c>
+      <c r="D222" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="22" t="s">
+        <v>902</v>
+      </c>
+      <c r="F222" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="G222" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="H222" s="32"/>
+    </row>
+    <row r="223" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="31">
+        <v>221</v>
+      </c>
+      <c r="B223" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C223" s="22" t="s">
+        <v>906</v>
+      </c>
+      <c r="D223" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223" s="22" t="s">
+        <v>907</v>
+      </c>
+      <c r="F223" s="29" t="s">
+        <v>908</v>
+      </c>
+      <c r="G223" s="29" t="s">
+        <v>909</v>
+      </c>
+      <c r="H223" s="32"/>
+    </row>
+    <row r="224" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>

--- a/antivirus/antivirus2.xlsx
+++ b/antivirus/antivirus2.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david-cc\Documents\goremad-2022\antivirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCDCA16-3E2A-4261-B60E-AE692451CA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D37196E-1CFB-4A7A-95F8-828B776BAD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1808,9 +1816,6 @@
     <t>Marleni Herrera Sana</t>
   </si>
   <si>
-    <t>Cesar Bocangel</t>
-  </si>
-  <si>
     <t>Giovanna Bocangel</t>
   </si>
   <si>
@@ -2761,6 +2766,9 @@
   </si>
   <si>
     <t>SGO-19</t>
+  </si>
+  <si>
+    <t>Cesar Bocanegra</t>
   </si>
 </sst>
 </file>
@@ -3102,7 +3110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3167,18 +3175,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3188,8 +3184,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3474,10 +3476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,21 +3492,22 @@
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3554,7 +3557,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3578,7 +3581,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3601,8 +3604,12 @@
         <v>26</v>
       </c>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <f>COUNTIF(B3:B223,"CONTABILIDAD")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3626,7 +3633,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3650,7 +3657,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3674,7 +3681,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3698,7 +3705,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3722,7 +3729,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3746,7 +3753,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3770,7 +3777,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3794,7 +3801,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3818,7 +3825,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3842,7 +3849,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6872,13 +6879,13 @@
         <v>584</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D142" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F142" s="15" t="s">
         <v>591</v>
@@ -6896,13 +6903,13 @@
         <v>584</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F143" s="15" t="s">
         <v>592</v>
@@ -6920,16 +6927,16 @@
         <v>584</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D144" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>593</v>
+        <v>909</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>588</v>
@@ -6944,7 +6951,7 @@
         <v>584</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>22</v>
@@ -6953,7 +6960,7 @@
         <v>51</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G145" s="15" t="s">
         <v>589</v>
@@ -6968,16 +6975,16 @@
         <v>584</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G146" s="15" t="s">
         <v>590</v>
@@ -6992,19 +6999,19 @@
         <v>585</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H147" s="7"/>
     </row>
@@ -7016,19 +7023,19 @@
         <v>585</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H148" s="7"/>
     </row>
@@ -7040,19 +7047,19 @@
         <v>585</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H149" s="7"/>
     </row>
@@ -7064,19 +7071,19 @@
         <v>585</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H150" s="7"/>
     </row>
@@ -7088,19 +7095,19 @@
         <v>585</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -7112,19 +7119,19 @@
         <v>585</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D152" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E152" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="F152" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="G152" s="22" t="s">
         <v>725</v>
-      </c>
-      <c r="F152" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="G152" s="22" t="s">
-        <v>726</v>
       </c>
       <c r="H152" s="7"/>
     </row>
@@ -7133,22 +7140,22 @@
         <v>151</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E153" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="F153" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="F153" s="15" t="s">
-        <v>628</v>
-      </c>
       <c r="G153" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -7157,22 +7164,22 @@
         <v>152</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G154" s="15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -7181,22 +7188,22 @@
         <v>153</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -7205,22 +7212,22 @@
         <v>154</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -7229,22 +7236,22 @@
         <v>155</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F157" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H157" s="11"/>
     </row>
@@ -7253,22 +7260,22 @@
         <v>156</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H158" s="14"/>
     </row>
@@ -7277,10 +7284,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D159" s="19" t="s">
         <v>11</v>
@@ -7289,10 +7296,10 @@
         <v>78</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H159" s="13"/>
     </row>
@@ -7301,22 +7308,22 @@
         <v>158</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D160" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E160" s="20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -7325,22 +7332,22 @@
         <v>159</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F161" s="15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H161" s="7"/>
     </row>
@@ -7349,22 +7356,22 @@
         <v>160</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E162" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="F162" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="F162" s="15" t="s">
-        <v>685</v>
-      </c>
       <c r="G162" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H162" s="7"/>
     </row>
@@ -7373,22 +7380,22 @@
         <v>161</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E163" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="F163" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="F163" s="15" t="s">
-        <v>692</v>
-      </c>
       <c r="G163" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H163" s="7"/>
     </row>
@@ -7397,22 +7404,22 @@
         <v>162</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E164" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="F164" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="F164" s="15" t="s">
+      <c r="G164" s="15" t="s">
         <v>694</v>
-      </c>
-      <c r="G164" s="15" t="s">
-        <v>695</v>
       </c>
       <c r="H164" s="7"/>
     </row>
@@ -7421,22 +7428,22 @@
         <v>163</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E165" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="F165" s="15" t="s">
         <v>696</v>
       </c>
-      <c r="F165" s="15" t="s">
+      <c r="G165" s="15" t="s">
         <v>697</v>
-      </c>
-      <c r="G165" s="15" t="s">
-        <v>698</v>
       </c>
       <c r="H165" s="7"/>
     </row>
@@ -7445,22 +7452,22 @@
         <v>164</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E166" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="F166" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="F166" s="15" t="s">
+      <c r="G166" s="15" t="s">
         <v>700</v>
-      </c>
-      <c r="G166" s="15" t="s">
-        <v>701</v>
       </c>
       <c r="H166" s="7"/>
     </row>
@@ -7469,22 +7476,22 @@
         <v>165</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="F167" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="F167" s="15" t="s">
+      <c r="G167" s="15" t="s">
         <v>703</v>
-      </c>
-      <c r="G167" s="15" t="s">
-        <v>704</v>
       </c>
       <c r="H167" s="7"/>
     </row>
@@ -7493,22 +7500,22 @@
         <v>166</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D168" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E168" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="F168" s="22" t="s">
         <v>705</v>
       </c>
-      <c r="F168" s="22" t="s">
+      <c r="G168" s="22" t="s">
         <v>706</v>
-      </c>
-      <c r="G168" s="22" t="s">
-        <v>707</v>
       </c>
       <c r="H168" s="7"/>
     </row>
@@ -7517,22 +7524,22 @@
         <v>167</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D169" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E169" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="F169" s="22" t="s">
         <v>708</v>
       </c>
-      <c r="F169" s="22" t="s">
+      <c r="G169" s="22" t="s">
         <v>709</v>
-      </c>
-      <c r="G169" s="22" t="s">
-        <v>710</v>
       </c>
       <c r="H169" s="8"/>
     </row>
@@ -7541,7 +7548,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C170" s="22">
         <v>12736</v>
@@ -7550,13 +7557,13 @@
         <v>11</v>
       </c>
       <c r="E170" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="F170" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="F170" s="22" t="s">
+      <c r="G170" s="22" t="s">
         <v>712</v>
-      </c>
-      <c r="G170" s="22" t="s">
-        <v>713</v>
       </c>
       <c r="H170" s="8"/>
     </row>
@@ -7565,22 +7572,22 @@
         <v>169</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E171" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F171" s="15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G171" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H171" s="8"/>
     </row>
@@ -7589,22 +7596,22 @@
         <v>170</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D172" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E172" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="F172" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="F172" s="21" t="s">
-        <v>687</v>
-      </c>
       <c r="G172" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H172" s="8"/>
     </row>
@@ -7613,22 +7620,22 @@
         <v>171</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D173" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E173" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="F173" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="F173" s="22" t="s">
+      <c r="G173" s="22" t="s">
         <v>715</v>
-      </c>
-      <c r="G173" s="22" t="s">
-        <v>716</v>
       </c>
       <c r="H173" s="8"/>
     </row>
@@ -7637,22 +7644,22 @@
         <v>172</v>
       </c>
       <c r="B174" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C174" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D174" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E174" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="F174" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="F174" s="22" t="s">
+      <c r="G174" s="22" t="s">
         <v>721</v>
-      </c>
-      <c r="G174" s="22" t="s">
-        <v>722</v>
       </c>
       <c r="H174" s="8"/>
     </row>
@@ -7661,22 +7668,22 @@
         <v>173</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D175" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F175" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="G175" s="22" t="s">
         <v>723</v>
-      </c>
-      <c r="G175" s="22" t="s">
-        <v>724</v>
       </c>
       <c r="H175" s="8"/>
     </row>
@@ -7685,22 +7692,22 @@
         <v>174</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D176" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E176" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="F176" s="22" t="s">
         <v>727</v>
       </c>
-      <c r="F176" s="22" t="s">
+      <c r="G176" s="22" t="s">
         <v>728</v>
-      </c>
-      <c r="G176" s="22" t="s">
-        <v>729</v>
       </c>
       <c r="H176" s="8"/>
     </row>
@@ -7709,7 +7716,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C177" s="22" t="s">
         <v>150</v>
@@ -7718,13 +7725,13 @@
         <v>11</v>
       </c>
       <c r="E177" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="F177" s="22" t="s">
         <v>730</v>
       </c>
-      <c r="F177" s="22" t="s">
+      <c r="G177" s="22" t="s">
         <v>731</v>
-      </c>
-      <c r="G177" s="22" t="s">
-        <v>732</v>
       </c>
       <c r="H177" s="8"/>
     </row>
@@ -7733,22 +7740,22 @@
         <v>176</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D178" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F178" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G178" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H178" s="8"/>
     </row>
@@ -7757,22 +7764,22 @@
         <v>177</v>
       </c>
       <c r="B179" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="C179" s="22" t="s">
         <v>666</v>
       </c>
-      <c r="C179" s="22" t="s">
-        <v>667</v>
-      </c>
       <c r="D179" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E179" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="F179" s="22" t="s">
         <v>735</v>
       </c>
-      <c r="F179" s="22" t="s">
+      <c r="G179" s="22" t="s">
         <v>736</v>
-      </c>
-      <c r="G179" s="22" t="s">
-        <v>737</v>
       </c>
       <c r="H179" s="8"/>
     </row>
@@ -7781,22 +7788,22 @@
         <v>178</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C180" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D180" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E180" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="F180" s="22" t="s">
         <v>717</v>
       </c>
-      <c r="F180" s="22" t="s">
+      <c r="G180" s="22" t="s">
         <v>718</v>
-      </c>
-      <c r="G180" s="22" t="s">
-        <v>719</v>
       </c>
       <c r="H180" s="8"/>
     </row>
@@ -7805,22 +7812,22 @@
         <v>179</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C181" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E181" s="2" t="s">
+      <c r="F181" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="F181" s="2" t="s">
+      <c r="G181" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="H181" s="8"/>
     </row>
@@ -7829,22 +7836,22 @@
         <v>180</v>
       </c>
       <c r="B182" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C182" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="D182" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="F182" s="22" t="s">
         <v>742</v>
       </c>
-      <c r="D182" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E182" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="F182" s="22" t="s">
+      <c r="G182" s="22" t="s">
         <v>743</v>
-      </c>
-      <c r="G182" s="22" t="s">
-        <v>744</v>
       </c>
       <c r="H182" s="8"/>
     </row>
@@ -7853,22 +7860,22 @@
         <v>181</v>
       </c>
       <c r="B183" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C183" s="22" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D183" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F183" s="22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G183" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H183" s="8"/>
     </row>
@@ -7877,22 +7884,22 @@
         <v>182</v>
       </c>
       <c r="B184" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D184" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E184" s="22" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G184" s="22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H184" s="8"/>
     </row>
@@ -7901,22 +7908,22 @@
         <v>183</v>
       </c>
       <c r="B185" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D185" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E185" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="F185" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="F185" s="22" t="s">
-        <v>756</v>
-      </c>
       <c r="G185" s="22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H185" s="8"/>
     </row>
@@ -7925,22 +7932,22 @@
         <v>184</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C186" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="22" t="s">
         <v>759</v>
       </c>
-      <c r="D186" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E186" s="22" t="s">
+      <c r="F186" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="F186" s="22" t="s">
+      <c r="G186" s="22" t="s">
         <v>761</v>
-      </c>
-      <c r="G186" s="22" t="s">
-        <v>762</v>
       </c>
       <c r="H186" s="8"/>
     </row>
@@ -7949,22 +7956,22 @@
         <v>185</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D187" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F187" s="22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G187" s="22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H187" s="8"/>
     </row>
@@ -7973,22 +7980,22 @@
         <v>186</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D188" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E188" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="F188" s="22" t="s">
         <v>768</v>
       </c>
-      <c r="F188" s="22" t="s">
-        <v>769</v>
-      </c>
       <c r="G188" s="22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H188" s="8"/>
     </row>
@@ -7997,22 +8004,22 @@
         <v>187</v>
       </c>
       <c r="B189" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="C189" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="D189" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="D189" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E189" s="22" t="s">
+      <c r="F189" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="F189" s="22" t="s">
+      <c r="G189" s="22" t="s">
         <v>773</v>
-      </c>
-      <c r="G189" s="22" t="s">
-        <v>774</v>
       </c>
       <c r="H189" s="8"/>
     </row>
@@ -8021,22 +8028,22 @@
         <v>188</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D190" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E190" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="F190" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="F190" s="22" t="s">
-        <v>787</v>
-      </c>
       <c r="G190" s="22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H190" s="8"/>
     </row>
@@ -8045,22 +8052,22 @@
         <v>189</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C191" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D191" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F191" s="22" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G191" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H191" s="8"/>
     </row>
@@ -8069,22 +8076,22 @@
         <v>190</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D192" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E192" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F192" s="22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G192" s="22" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H192" s="8"/>
     </row>
@@ -8093,22 +8100,22 @@
         <v>191</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D193" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E193" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F193" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G193" s="22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H193" s="8"/>
     </row>
@@ -8117,22 +8124,22 @@
         <v>192</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D194" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E194" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F194" s="22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G194" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H194" s="8"/>
     </row>
@@ -8141,22 +8148,22 @@
         <v>193</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C195" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D195" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E195" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F195" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G195" s="22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H195" s="8"/>
     </row>
@@ -8165,22 +8172,22 @@
         <v>194</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D196" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E196" s="22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H196" s="8"/>
     </row>
@@ -8189,22 +8196,22 @@
         <v>195</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C197" s="22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D197" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E197" s="22" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F197" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G197" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H197" s="8"/>
     </row>
@@ -8213,22 +8220,22 @@
         <v>196</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D198" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E198" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F198" s="22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G198" s="22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H198" s="8"/>
     </row>
@@ -8237,22 +8244,22 @@
         <v>197</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D199" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E199" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F199" s="22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G199" s="22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H199" s="8"/>
     </row>
@@ -8261,22 +8268,22 @@
         <v>198</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D200" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E200" s="22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F200" s="22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G200" s="22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H200" s="8"/>
     </row>
@@ -8285,22 +8292,22 @@
         <v>199</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D201" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E201" s="22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F201" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G201" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H201" s="8"/>
     </row>
@@ -8309,22 +8316,22 @@
         <v>200</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D202" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E202" s="22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F202" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G202" s="22" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H202" s="8"/>
     </row>
@@ -8333,22 +8340,22 @@
         <v>201</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D203" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E203" s="22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F203" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G203" s="22" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H203" s="8"/>
     </row>
@@ -8357,22 +8364,22 @@
         <v>202</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D204" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F204" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G204" s="23" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H204" s="8"/>
     </row>
@@ -8381,22 +8388,22 @@
         <v>203</v>
       </c>
       <c r="B205" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="C205" s="22" t="s">
         <v>819</v>
       </c>
-      <c r="C205" s="22" t="s">
-        <v>820</v>
-      </c>
       <c r="D205" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E205" s="22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F205" s="22" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G205" s="22" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H205" s="8"/>
     </row>
@@ -8405,22 +8412,22 @@
         <v>204</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D206" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E206" s="22" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F206" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G206" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H206" s="8"/>
     </row>
@@ -8429,22 +8436,22 @@
         <v>205</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D207" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E207" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F207" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G207" s="22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H207" s="8"/>
     </row>
@@ -8453,22 +8460,22 @@
         <v>206</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D208" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E208" s="22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F208" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G208" s="22" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H208" s="8"/>
     </row>
@@ -8477,22 +8484,22 @@
         <v>207</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D209" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F209" s="22" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G209" s="22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H209" s="8"/>
     </row>
@@ -8501,22 +8508,22 @@
         <v>208</v>
       </c>
       <c r="B210" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C210" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D210" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E210" s="22" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F210" s="22" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G210" s="22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H210" s="8"/>
     </row>
@@ -8525,22 +8532,22 @@
         <v>209</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D211" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E211" s="22" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F211" s="22" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G211" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H211" s="8"/>
     </row>
@@ -8549,22 +8556,22 @@
         <v>210</v>
       </c>
       <c r="B212" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C212" s="22" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D212" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E212" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F212" s="22" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G212" s="22" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H212" s="8"/>
     </row>
@@ -8573,22 +8580,22 @@
         <v>211</v>
       </c>
       <c r="B213" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C213" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D213" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E213" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F213" s="22" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G213" s="22" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H213" s="8"/>
     </row>
@@ -8597,22 +8604,22 @@
         <v>212</v>
       </c>
       <c r="B214" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C214" s="22" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D214" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E214" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F214" s="22" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G214" s="22" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H214" s="8"/>
     </row>
@@ -8621,22 +8628,22 @@
         <v>213</v>
       </c>
       <c r="B215" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D215" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E215" s="22" t="s">
-        <v>879</v>
-      </c>
-      <c r="F215" s="29" t="s">
-        <v>891</v>
+        <v>878</v>
+      </c>
+      <c r="F215" s="22" t="s">
+        <v>890</v>
       </c>
       <c r="G215" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H215" s="8"/>
     </row>
@@ -8645,22 +8652,22 @@
         <v>214</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D216" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E216" s="22" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F216" s="22" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G216" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H216" s="8"/>
     </row>
@@ -8669,22 +8676,22 @@
         <v>215</v>
       </c>
       <c r="B217" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D217" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>881</v>
-      </c>
-      <c r="F217" s="29" t="s">
-        <v>892</v>
+        <v>880</v>
+      </c>
+      <c r="F217" s="22" t="s">
+        <v>891</v>
       </c>
       <c r="G217" s="22" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H217" s="8"/>
     </row>
@@ -8693,144 +8700,144 @@
         <v>216</v>
       </c>
       <c r="B218" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C218" s="22" t="s">
-        <v>847</v>
-      </c>
-      <c r="D218" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="D218" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E218" s="22" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F218" s="22" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G218" s="22" t="s">
-        <v>871</v>
-      </c>
-      <c r="H218" s="32"/>
+        <v>870</v>
+      </c>
+      <c r="H218" s="28"/>
     </row>
     <row r="219" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9">
         <v>217</v>
       </c>
       <c r="B219" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>848</v>
-      </c>
-      <c r="D219" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="D219" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F219" s="22" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G219" s="22" t="s">
-        <v>872</v>
-      </c>
-      <c r="H219" s="32"/>
+        <v>871</v>
+      </c>
+      <c r="H219" s="28"/>
     </row>
     <row r="220" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="10">
         <v>218</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C220" s="22" t="s">
+        <v>895</v>
+      </c>
+      <c r="D220" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" s="22" t="s">
         <v>896</v>
       </c>
-      <c r="D220" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E220" s="22" t="s">
+      <c r="F220" s="22" t="s">
+        <v>894</v>
+      </c>
+      <c r="G220" s="22" t="s">
         <v>897</v>
       </c>
-      <c r="F220" s="29" t="s">
-        <v>895</v>
-      </c>
-      <c r="G220" s="22" t="s">
+      <c r="H220" s="28"/>
+    </row>
+    <row r="221" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="26">
+        <v>219</v>
+      </c>
+      <c r="B221" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>899</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221" s="22" t="s">
         <v>898</v>
       </c>
-      <c r="H220" s="32"/>
-    </row>
-    <row r="221" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="30">
-        <v>219</v>
-      </c>
-      <c r="B221" s="22" t="s">
-        <v>819</v>
-      </c>
-      <c r="C221" s="33" t="s">
+      <c r="F221" s="22" t="s">
+        <v>902</v>
+      </c>
+      <c r="G221" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="H221" s="28"/>
+    </row>
+    <row r="222" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="27">
+        <v>220</v>
+      </c>
+      <c r="B222" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="C222" s="22" t="s">
         <v>900</v>
       </c>
-      <c r="D221" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E221" s="22" t="s">
-        <v>899</v>
-      </c>
-      <c r="F221" s="29" t="s">
-        <v>903</v>
-      </c>
-      <c r="G221" s="22" t="s">
+      <c r="D222" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="22" t="s">
+        <v>901</v>
+      </c>
+      <c r="F222" s="22" t="s">
+        <v>902</v>
+      </c>
+      <c r="G222" s="22" t="s">
         <v>904</v>
       </c>
-      <c r="H221" s="32"/>
-    </row>
-    <row r="222" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="31">
-        <v>220</v>
-      </c>
-      <c r="B222" s="22" t="s">
-        <v>819</v>
-      </c>
-      <c r="C222" s="22" t="s">
-        <v>901</v>
-      </c>
-      <c r="D222" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E222" s="22" t="s">
-        <v>902</v>
-      </c>
-      <c r="F222" s="29" t="s">
-        <v>903</v>
-      </c>
-      <c r="G222" s="22" t="s">
+      <c r="H222" s="28"/>
+    </row>
+    <row r="223" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="27">
+        <v>221</v>
+      </c>
+      <c r="B223" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="C223" s="22" t="s">
         <v>905</v>
       </c>
-      <c r="H222" s="32"/>
-    </row>
-    <row r="223" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="31">
-        <v>221</v>
-      </c>
-      <c r="B223" s="22" t="s">
-        <v>819</v>
-      </c>
-      <c r="C223" s="22" t="s">
+      <c r="D223" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="D223" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E223" s="22" t="s">
+      <c r="F223" s="22" t="s">
         <v>907</v>
       </c>
-      <c r="F223" s="29" t="s">
+      <c r="G223" s="22" t="s">
         <v>908</v>
       </c>
-      <c r="G223" s="29" t="s">
-        <v>909</v>
-      </c>
-      <c r="H223" s="32"/>
+      <c r="H223" s="28"/>
     </row>
     <row r="224" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="225" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
